--- a/data/CommonEvents.xlsx
+++ b/data/CommonEvents.xlsx
@@ -19257,7 +19257,7 @@
     <t>\n&lt;エイミー&gt;あたしってばさいきょーかも。</t>
   </si>
   <si>
-    <t>~Combat System~</t>
+    <t>Combat System</t>
   </si>
 </sst>
 </file>
@@ -19353,7 +19353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -19388,7 +19388,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -19599,8 +19599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4841"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/data/CommonEvents.xlsx
+++ b/data/CommonEvents.xlsx
@@ -2717,7 +2717,7 @@
   </si>
   <si>
     <t>From my crotch to my back...from my toes to my head...
-the slimy surface rubs against me, stroking my genitals and body at the same time.</t>
+the slimy surface rubs against me, stroking my genitAlsto and body at the same time.</t>
   </si>
   <si>
     <t>上下に動く喉元がごくっ、こく……と、
@@ -2733,7 +2733,7 @@
   </si>
   <si>
     <t>It's not just the semen;
- This time my body is also being gulped down, slipping on her curved tongue...
+ This time my body is Alstoo being gulped down, slipping on her curved tongue...
 slipping right into her throat.</t>
   </si>
   <si>
@@ -3588,7 +3588,7 @@
 全身が溺れてしまって逃げ道がない。</t>
   </si>
   <si>
-    <t>An addictive feeling of perverseness, this melting feeling which steals everything away from you...
+    <t>An addictive feeling of perverseness, this melting feeling which steAlsto everything away from you...
 My whole being is drowning in ecstasy and there is no way out.</t>
   </si>
   <si>
@@ -3629,7 +3629,7 @@
 ぜんぶ、全部熱い粘液に溶け混ざってゆく。</t>
   </si>
   <si>
-    <t>My limbs, my genitals, even my senses....
+    <t>My limbs, my genitAlsto, even my senses....
 All of them dissolve into the thick, hot mucus.</t>
   </si>
   <si>
@@ -19132,7 +19132,7 @@
 なるべく見つからないように、こっそりね。</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;あにき。頼りにしてる。
+    <t>\n&lt;Meria&gt;あにき。頼りにしてる。
 頑張って。
 なるべく見つからないように、こっそりね。</t>
   </si>

--- a/data/CommonEvents.xlsx
+++ b/data/CommonEvents.xlsx
@@ -19770,8 +19770,8 @@
 約束だよ。</t>
   </si>
   <si>
-    <t>\n&lt;ロメリア&gt;Alsy... You must never...
-ever ever die out on me okay? Promise me.</t>
+    <t>\n&lt;ロメリア&gt;あにき、絶対・・・
+絶対死んじゃったりしないでね。約束だよ。</t>
   </si>
   <si>
     <t>\n&lt;ロメリア&gt;まさか淫魔なんかにえっちなことされて
@@ -19779,8 +19779,8 @@
 なんかちょっと、気が緩んだ顔してる・・・</t>
   </si>
   <si>
-    <t>\n&lt;ロメリア&gt;You're not enjoying those succubus doing lewd things
-to you right? You somehow look more relaxed than usual...</t>
+    <t>\n&lt;ロメリア&gt;まさか淫魔なんかにえっちなことされて
+喜んだりしてないよね？なんかちょっと、気が緩んだ顔してる・・・</t>
   </si>
   <si>
     <t>\n&lt;ロメリア&gt;肌寒い気がするのに

--- a/data/CommonEvents.xlsx
+++ b/data/CommonEvents.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585519D5-7C25-4512-9411-77837CA533B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F561E9-D6BA-434E-9B62-203A196E7F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10659" uniqueCount="6499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11145" uniqueCount="6987">
   <si>
     <t>～戦闘システム～</t>
   </si>
@@ -25037,6 +25037,2253 @@
   <si>
     <t>\n&lt;\n[1]&gt;Ahn, ahn, ahhn!\.
 Stop stop!!!!\. I'm gonna!!!!!</t>
+  </si>
+  <si>
+    <t>Ugh... My strength is...
+Let's go back and rest a moment...</t>
+  </si>
+  <si>
+    <t>Ugh... Can't move my body...
+Here of all places...</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Ahh! \n[1]!
+Are you ok?
+Where's that medicine...</t>
+  </si>
+  <si>
+    <t>Several days later...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Hold on!!
+Keep it together!!</t>
+  </si>
+  <si>
+    <t>Lily's level decreased by 1 from consuming her magic...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;You're going to be fine!
+Now get up!
+We have to hurry and save everyone!</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;There we are.</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Your treatment fee, please. (3000G)
+Take care now-.</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Your treatment fee, please.
+What? This is all you've got? I'm getting ripped off!
+Don't get hurt again! (All money taken)</t>
+  </si>
+  <si>
+    <t>M-my body...
+No! I can't fall in a place like this!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Haah♥ What's that? Already about to cum?
+Hora♥ Go on then♥
+I'll take it all inside me♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;There's no way...
+You...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;...
+I'm leaving.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Mm...♥
+Hahahaha! You really came♥ You were serious♥
+So quick♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You see all those guys lying around here?
+I ate 'em all up♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;At first, I could hear them panting and gasping under my ass.
+So good♥ It's so good♥ they would say.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Then after they came a whole bunch,
+they'd get afraid, and beg me to stop♥
+All the while, cumming over and over♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;But my pussy feels so good,
+you just can't escape from it♥
+You humans♥ You're just so stupid♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Even now, if you were to twist your body,
+you might be able to escape my pussy♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hora♥ Cum for me again♥
+Let me suck up all your sperm♥
+Come on♥ Hora♥Let it out inside me again♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Doesn't it frustrate you, being raped by a monster?
+Tell me how you despise me.
+I can't hear you over all the gasps and moans!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hora♥
+Are you angry? Do you feel good?
+Hora hora hora♥♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Humans are so weak to pleasure♥
+You're so pathetic♥
+How are you even alive♥ Ahahahaha♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hurry up and die♥ Cum inside me and die♥♥
+Squeeze out every last sperm and drop dead♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Drop dead♥ Die in my pussy♥
+Die♥♥♥</t>
+  </si>
+  <si>
+    <t>Ahh...
+Can't stop cumming...
+It's all... Coming out...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Aaahhh♥ I broke ya♥
+What a disappointment♥
+Just keep cumming 'til you die♥ HA HA HA HA!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Now, all these half-eaten humans are bringing me down.
+I'm getting outta this dump♥
+Later♥</t>
+  </si>
+  <si>
+    <t>\&gt;Lily cast Attract!
+\&gt;\n[1]'s power has greatly increased!</t>
+  </si>
+  <si>
+    <t>\&gt;Lily cast Deft Hands!
+\&gt;\n[1]'s skill has greatly increased!</t>
+  </si>
+  <si>
+    <t>\&gt;Lily cast Stone Skin!
+\&gt;\n[1]'s defense has greatly increased!</t>
+  </si>
+  <si>
+    <t>\&gt;Lily cast Tranquility!
+\&gt;\n[1]'s willpower has greatly increased!</t>
+  </si>
+  <si>
+    <t>\&gt;Lily cast Calm Down!
+\&gt;\n[1]'s energy has increased by \v[553]!</t>
+  </si>
+  <si>
+    <t>\&gt;Lily cast Frenzy!
+\&gt;\n[1]'s TP has greatly increased!</t>
+  </si>
+  <si>
+    <t>\&gt;Lily cast Lover's Gift!
+\&gt;\n[1]'s stats all increased by 1.5x!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Oh♥ Oh♥ Oh♥
+Your dick's about to cum♥ Ahahahaha!
+The sperm's about to shoot out! Ahahaha!!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hey♥ Are you about to cum?
+I can eat you once you cum, right?
+Right? Hey♥ Hey♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahaaa♥ There it is♥
+You weren't supposed to cum♥
+Aaaahh♥ You knew what would happen if you did♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;There's no escaping now♥
+And you're looking so very delicious.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Oh, don't worry♥
+I'm not going to strangle you♥
+I might have done so in the past.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Every since I became a succubus, semen is just so tasty♥
+I love to suck the life out of someone, almost as much
+as I enjoy swallowing them whole♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;If you're going to be eaten either way,
+you may as well feel good while it happens, right?
+Mmmm♥ Just like this♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Never mind that I'm a monster, a human's natural enemy,
+and you've really got to go save your friends,
+and you're about to be eaten...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;With your cock between my tits,
+your brain doesn't want to be anywhere else♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Boobs are a human's true weakness♥ Fufu♥
+There's not one cock out there that can resist a tit fuck♥
+Squish♥ Squish♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahaaa♥ Cute♥
+Drown in your own lust, it's a lovely look for you♥
+Let me show you even more love♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Squeeze♥ Hora♥ Look, your favorite boobs♥
+Bury your face in them♥
+Puff♥ Puff♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Don't be afraid, now♥
+You should be excited to become one with me♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Look at these warm, soft boobs♥
+Let your strength and your mind melt away into them♥
+Hoora♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Just to make sure you're not thinking about
+anything else, I'll place a charm on you♥
+Here we are♥ Hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Fufuu♥
+Now, hug me as tight as you can♥
+Squeeeeeze♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahaa♥ You've grown so weak♥
+Your body and mind have turned to mush♥
+Ahahaha♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Now, I'm going to swallow you♥
+You were so cute♥ I'll never forget about you...♥
+You'll become my strength, and my magic♥</t>
+  </si>
+  <si>
+    <t>\n[1] was swallowed whole...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Oh look! You came, you came♥
+Nobody beats my boobs♥
+Myahahahahaha♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Were you tryin' to make me cum?
+Ah-♥ Ah-♥
+So then why did you end up cumming-?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Did you think you could win?
+With this tiny dick♥
+Up against my massive tits♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You moron♥ Stupid stupid dumbass♥
+Stupid stupid stupid stupid♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;What a feeble little dick!
+I'll make it cry between my tits again♥
+Little crybaby dick! Keheheheh♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You know, ever since I got this body,
+everybody's been looking at me different♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Even though you were afraid to come near me before,
+now you've got that look in your eyes like a beast in heat,
+just like everybody else♥ Keheheheh♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You're just like all those other weaklings♥
+Willing to get eaten for the sake of some titties♥
+A horny idiot looking to get your rocks off♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;So what's next?
+Squeeze♥ Squeeeeeeze♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Aaahhh!! Aaaaaaaaaaahhhh!!!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Wahaha♥ What a lovely cry♥♥
+Reminds me of, uh, ummm...
+That time I bit into a pig's neck♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Come on♥ Let me hear some more♥ Scream a bunch for me♥
+Keep this up and you'll be my new favorite toy♥
+Come on♥ Come on-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Squeeze♥ Squeeze♥ Squeeeeeeze♥♥♥</t>
+  </si>
+  <si>
+    <t>\n[1] became the Tiger's favorite toy...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Myahaaaaa♥♥ You're all mine♥
+I love you♥ I love you I love you♥ So much fun♥
+You're my toy forever! Hyahahahaha♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I'll play with you even after you break♥
+When I feel like playing, your dick's gonna spring up♥
+Got it, little toy♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ora ora♥ Hurry up and cum♥
+You're finished♥
+Weak, weak, weak♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ha ha! You're so weak♥
+Is all this for me to eat? Hmmm?
+Would you like to be eaten too?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;My, my!
+Did your tiny little dick get eaten up by my
+massive tits?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You're trapped underneath me-♥
+C'mon, c'mon♥
+Try and force me off! Just try it-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You can't escape from my tits, 'cause
+you're too puny♥
+Don't you feel good?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I smell cum again♥
+Are you gonna cum? Are ya?
+Hora♥ Cum for me♥ Surrender to my tits♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Grrrowl♥
+This is the best♥ You're too funny-♥
+Humans are just so weak-♥ Ahahaha!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Did you know? They call this 'paizuri',
+when I bully your dick with my tits like this!
+Heheheh♥ Your dick never stood a chance♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I don't even need to use my pussy.
+You'll spurt it all out just from being squeezed like this♥
+What a moron, trying to breed with my tits♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You know you've gotta cum in my pussy to breed, right?
+Didn't you know that?
+You are such an idiot!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Now all your stupid sperm will be eaten♥
+You can fertilize my belly♥
+Keheheh♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Slurp, slurp♥
+So much sperm pooling in my cleavage-♥ Sluuuuurp♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;The tip of your dick... Slurp♥
+It's all red and swollen... Lick, lick♥
+And just a little bit salty...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I'll keep licking even when you're dried up♥
+I'll keep raping you even when nothing comes out♥
+Slurp♥ Slurp♥ Sluuuuuurp♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Give me some more...♥
+Slurp♥ Smack♥
+You're my toy now♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Mmm...♥Gulp...♥ Gulp...♥
+You came so much♥ ...Myaaah?
+Oi! You can't sleep yet! Don't pass out, weakling!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Wake up wake up wake up!
+I'll wake you up with a titty fuck♥
+This'll feel too good to sleep through♥ Hora hora♥</t>
+  </si>
+  <si>
+    <t>...!!</t>
+  </si>
+  <si>
+    <t>\n[1] passes out and wakes up over and over.
+You've become Tiger's plaything...</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Wait...
+What are... You doing...!!
+Aaahh!</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Uuuuh... Gah...♥
+L-let me go...! Ahn, ahn!</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Gah... Ahhh...♥
+Hah... Hah...!</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;You... What are you...!
+Wh-why does it feel so good...!</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Hah... Hah...
+Auuuugh...!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Ahn, ahn!
+Oh no...! Ah! Ahhh!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Ahhhhn...♥
+L-Let me go! Please...!!
+Let me go!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Ahn, ahn...!
+You're terrible...! Nyaaaah...!</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Ahh! No more!!
+Ahn, ahn, ahhhhhn♥♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Nooooooo!!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Uuuh... Aaahh...♥
+Hah... Hah...</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;You d...
+Dirty old...
+Hag... Ahhh...</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Ahn, ahn, ahn!!
+No more...!
+No more... Rubbing...!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Ahn, ahn!
+Stop it! Stop... It...!
+Ahhhhhhh!</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Cummiiiiiinnnnnnng♥♥♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Ahn, ahn, ahn...</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Gah...!!!!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Ugh... Oww...
+(Shit...!! Shit...!!!)</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;(These guys...
+Big brother... You gotta...
+Beat them... All...)</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;I need to verify the effectiveness of the gas.
+Hora♥
+Does it feel nice just having your body rubbed like this?</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;This aphrodisiac gas was made by condensing
+Lily's pheremones. It seems to be quite effective♥
+Do you enjoy it? This smell♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Ahaha♥
+Cute little girl♥
+Hora♥ Just embrace it...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;That's right. Little miss Hunter♥
+You would never cum from a human woman
+rubbing her ass against you♥ Hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Ahaah♥
+Is your face turning red?
+What's happening, hm♥ Hmmmm♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Hm?
+And what if I don't let you go?
+Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Ara ara♥
+You're a squirter♥
+Are you sure you didn't like that? Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Hm? Did you want me to pleasure you some more?
+Ufufu♥
+Greedy little girl♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;It's ok♥
+I'm only a human.
+Hoora♥ Cum again for me♥ Ufufufufu♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Such a weak little hunter♥
+Tee hee♥
+It's no wonder you were captured♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;I wonder if you siblings are both so sensitive♥
+Your big brother will soon be my captive too♥
+Ohohohohoho♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Now then...</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;That little love tap is for how you spoke
+to me earlier.
+Try to be a little more sensitive next time.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;I need to verify the effectiveness of the gas.
+Hora♥
+I'll give you a rubdown with my ass♥ Ufufu♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;This aphrodisiac gas was made by condensing
+Lily's pheremones. It seems to be quite effective♥
+Just look how hard you've gotten♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;You truly want me to stop?
+If you hate this so much, why not just push me away?</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;A strapping man like yourself
+should easily be able to push me aside.
+Hora♥ Hooora...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Is this weak little hunter just going to 
+let a human woman grind him with her ass?
+Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Ahaaa♥
+Your face is bright red, hm?
+Don't tell me, you're about to ejaculate?</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Oh, my my♥
+Such a pathetic scream♥
+I can't believe a man just made that noise♥ Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Hm? Did you say something?
+You just seem so excited to have my ass
+rubbing up against your penis♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Don't worry♥ I'm only human.
+It should be fine to cum as much as you want, no?
+Hora♥ Cum again♥ Cum on my ass again♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;My my♥ My dress is soaked with semen♥
+Such a weak hunter♥
+It's no wonder you were captured♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;I wonder if you siblings are both so sensitive♥
+Your little sister will soon be my captive too♥
+Ohohohohoho♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Ara ara♥
+Men are powerless after they've ejaculated. Hee♥
+Even though I just poked you with my tiny arm.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;You have no idea how to talk to women.
+Perhaps a bit more training is required.
+Ufufu♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Ahh...!
+Wai-...! What the...!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Kuh... Uuuugh...!</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Uhn...!
+Stop... This...!</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Aaahhh...
+(D...Dammit! I'm powerless...)</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Uwaah...!
+(I'm caught... Between her cheeks...!)</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;L... Let me go...!!
+Hah... Hah...!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Ahhn...
+Ahn, ahn, ahn...!!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Oh... No...!!!!
+Can't... Hold back...!!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Uwaaaaaahhhh!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Gaaahh...♥
+Hah... Hah...</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;D... Damn you...
+Don't... Get... Cocky...</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Get...
+Your fat ass... Away from me...</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Gaaah...!!
+S... Stop it...!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Ah...!!
+Aaahh!! Aaaaahhhh...!!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Ahhhhhhhhhhhnn!!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;G... Gaah...!
+Why... Is this...</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Gyaah!!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Ah... Gahh...
+How dare you... Sucker punch... Me...</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;There's nothing... Tiny about you...
+Owww...
+You... Hit like... A gorilla...</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Dam... mit...
+(\n[1]... Please...
+Get away from here...)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahhhn♥
+I can taste that broth you're holding back♥
+It's soon to overflow♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahaaa♥
+Did more semen come out? Ara ara♥
+Did you get too excited? Hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Mmm♥ Smack♥ Slurp♥
+Tasty♥ Smack♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;How did such a cute girl come to possess
+such a wonderful penis♥
+Ufufu♥ I want to eat you up♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ara♥ You're quite the handsome young man,
+now that I'm looking at you♥ You're just my type♥
+I want to eat you up♥ Slurp♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Kiss♥ Smooch♥
+Lots of kisses for your sensitive tip♥
+How's that♥ Does it tickle?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I'll suck all the semen out of you♥
+Smack♥ Sluuuuuurp♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]Gulp...♥ Gulp...♥
+Mfufu♥ Ejaculating from just some kisses♥
+You're squirting all♥ In♥ My mouth♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Lick♥
+How about this then?
+Lick lick♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahaa♥ Don't bother struggling♥
+You're caught snugly in my scythes.
+You can't escape, no matter how good it feels♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Lick lick...♥
+I'll give the underside some love too...♥
+Lick lick lick lick...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;It's rising up♥
+Your semen is welling up♥ Ufufu♥
+If you cum again, it's all over for you♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahaaahn♥
+Sensitive little dick♥ Crybaby dick♥
+Cry some more for me♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Sluuurk♥ Sluurp♥ Sluuuurp♥
+Ahaa♥ I feel like I'm going to burst♥
+You're filling my mouth so full♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Mmph♥ It seems you're already a slave to my mouth♥
+So, the next time you ejaculate...
+Mmmm...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;\C[10]I'll devour you entirely...♥ Sluuuurp♥
+With this mouth♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;If you don't want that, just don't ejaculate♥
+Nfufu♥
+Sluuuuuuuuurp♥♥♥</t>
+  </si>
+  <si>
+    <t>Ahn♥ Ahn♥
+It can't be...♥
+I don't want to be eaten...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Gulp... Gulp...♥ Nfufu♥
+Don't worry♥ It won't hurt when I eat you♥
+On the contrary, you'll be cumming with every bite♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Don't be afraid♥ Where would you like me to begin, hm♥
+I'll eat your penis last♥
+Ahhhhn...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Munch munch...♥ Delicious♥
+Well? Doesn't it feel incredibly good?
+Hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Gulp♥
+Ahaa♥ You're cumming nonstop, like a fountain♥
+Will you run dry before you die, I wonder♥ Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n[1] was eaten up...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I barely felt your tiny ejaculation, pipsqueak♥
+I'll just have to make you keep cumming-!
+Ora ora ora♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Haha! Was that you cumming again?
+Ahahahaha!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;How interesting-♥
+You're like a puny doll! Kuheehee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;One of those old researchers gave me a stuffed animal once.
+I tore it shreds immediately.
+I wonder how long you're gonna last-?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Teeny tiny pipsqueak♥
+You're not gonna break just by being crushed by my tits, right?
+Come on now-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Oh! Your body's gotten stiff again!
+Are you gonna cum? Ahaha!
+Your whole body's like a dick♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Grrrrrowl♥
+I already told you, I can't feel when you cum♥
+Stupid, stupid♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;It feels super good having your dick squeezed, so it must
+be like heaven having your whole body in there♥
+Kukuku♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;So puny♥ Give me more cum♥
+Lick♥ Lick lick♥
+Drown in my saliva♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hora hora♥
+If you don't escape, you'll be crushed by my tits.
+Is that what you want?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I'll grope you
+and squeeze you
+until you're crushed flat♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I'll force out all the semen
+flowing through your body♥
+Kukukukuku♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Is it crushing time-? Time to make you cum-?
+I'll crush you, and wring out every drop of semen-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hoora♥ Your entire body will ejaculate-♥♥♥
+Crush, crush♥♥♥</t>
+  </si>
+  <si>
+    <t>\n[1] was crushed between Tiger's breasts...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahaaa♥ Cum for me♥
+I'll squeeze you over and over♥
+Cum, cum, cum♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Oi, oi♥ You're struggling so much in there♥
+I can feel every movement♥
+Ahh♥ Hahahaha♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hora hora♥
+Humans can't get enough of my pussy♥
+Squish♥ Squiiiish♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;How could you not get hard, having your
+entire body squeezed inside your favorite pussy?
+Ah ha ha ha♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Lucky little shrimp♥
+Did you ever imagine you'd enjoy this experience?
+Hmmm♥ Full body sex♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I'm so wet and slimy inside♥
+And that erotic, womanly scent♥
+I'm hot enough to burn you♥ Kukuku♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You've been cumming for a while now♥
+I can feel you trembling and shaking♥
+Hahahaha♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Some people go crazy for cunnilingus♥ If I plunged
+someone like that into my pussy... They'd never last♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Feel my pussy walls...♥
+Smell them, taste them. Take it all in♥
+Before you lose your mind♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Did you ever imagine that your life would end
+inside an orc's pussy♥
+Kukukuku♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Cum♥ Cum with your whole body♥
+My little human dildo♥
+Hora hora hora hora♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Since you were born from the womb,
+you can return to the womb to die♥
+Ah Hahahahahaha!!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Sluurk♥ Sluuuuuurp...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Mmmph♥♥
+Lick lick♥
+Sluuuuuurp♥♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Your body is like a tiny doll♥
+Smack♥ Smooch♥
+How could you possibly resist this difference in our sizes♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;How do you like big sister's mouth?
+Hora♥ I feel like I could suck your
+whole body right up, just like that♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Smack♥ Slurp♥ Smooch♥
+Don't your big sister's♥ lips feel nice♥
+Across your entire waist♥ Smooch♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Sluuuurp♥
+Ahaa♥ Pew♥ Pew♥ Your sperm shot out♥
+It's not very filling, but it's so adorable♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Mmm♥ Smack♥ Say♥
+Is it exciting having your penis sucked by my big mouth?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;The smell of big sister's saliva♥
+My breath♥ My pheremones♥
+Letting it all wash over your whole body...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hora♥ You just won't stop ejaculating♥
+Big sister's just giving you a little peck♥
+For you, it's like a vice grip on your cock♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Should you really just be lying there squirting?
+Hmmm♥
+I'm a succubus. Have you no shame?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;If I open my mouth wider now, I could
+end it all, and gulp you down in one bite♥
+Game over♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Even still, you're just lying back,
+letting your cock be pleasured♥
+Fufufu♥ Slurp♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Mmmm, yeah♥ I understand♥ What you want♥
+You really want to be eaten now♥
+Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Ahh... No way...
+You... Don't know anything...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Ahh... N-no...
+You... Don't know anything...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hora♥ Come on inside♥
+My belly will show you lots of love♥
+Ahhhhh....n♥</t>
+  </si>
+  <si>
+    <t>\n[1] was swallowed by Mantis...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;My boobs just feel too good♥
+Hora hora♥ Melt for me♥
+Ufufufu♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahhn♥ Are you really ejaculating?
+Such a pathetic penis♥
+It looks like a toothpick♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahhh♥ You were so strong earlier♥
+Where did that hunter who made me cum go♥
+Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;What's that? I'm cheating?
+Yeah, I suppose. There's no way you could've
+won, with such a big difference in our sizes♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;And yet, it wasn't my size that made you ejaculate.
+It was the feeling of my boobs, no?
+Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;In the end, you succumbed to the scent, 
+and the soft warmth of my breasts♥
+Isn't that right? Little hunter♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahaa♥ You came again♥
+My boobs feel so good, you keep cumming♥
+That right there is why you lost♥ Right?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;What's more, is it possible...
+That you were captured on purpose?
+Hmmm♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You with your tiny body, stared from below
+at my giant tits, and you just couldn't help yourself♥
+Ahaha♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You were thinking, how would it feel to have my
+entire body sandwiched between those tits♥
+And? Is it all you dreamed of? Ufufu♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Mmm♥ Another squirt♥
+I must've exceeded your expectations♥
+Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;What are you dreaming of next?
+Being crushed inside my boobs?
+Having your whole body squeezed inside my pussy?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ufufu♥
+I think I know♥
+You want to be snapped up inside my mouth♥ Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Did you cum just from imagining being eaten?
+Ahaa♥ How incredibly perverse♥
+Alright then♥ I'll just have to eat you♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;\C[10]D\.o\.w\.n\. \.y\.o\.u\. \.g\.o\.♥</t>
+  </si>
+  <si>
+    <t>\n[1] was eaten by Witch Lamia...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Oh-?
+You're not really about to cum, are you?
+You're really just gonna lose like that?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahhh. You came.
+Everybody is speechless.
+You really shouldn't have came♥ Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You really shouldn't have lost♥
+You let it leak so easily, and all I did was kiss you 
+and jerk you off a little♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;But I suppose it couldn't be helped♥
+Smooch♥ Smooch♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;See, you hated me just moments ago,
+but now I bet you think you love me, no?
+The human brain is such a fickle thing♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;All we've done is exchanged saliva,
+and suddenly you feel the need to breed with me♥
+Your body is betraying you♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You've got to rescue everybody♥
+But you're too paralyzed by pleasure, as your enemy
+kisses you and jerks your penis.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;This is about as low as a human can get, but it's not your fault♥
+It's just the way you were made♥
+That body of yours♥ Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Sperm comes out when you receive stimulation♥
+It doesn't matter that I'm not touching your genitals. Nor that the
+sperm is wasted, not even that your enemy is doing it to you♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Tee hee♥
+This must be so embarrassing in front of everyone♥
+You've ejaculated 3 times all in a row♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;How can you lose yourself to pleasure at a time like this?
+Your family and your friends are our hostages, remember?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;\n[1] squirted this much just from a french kiss
+hand job. You'll be providing me with plenty of 
+experiment material from this point on♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Your dick sprang up just from your enemy's kisses.
+\n[1] is quite naughty, no?
+I'm not so bad♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahh♥ Please don't cry♥
+I'll be extra careful so I don't break you from now on♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Let me dry your tears♥
+Liiiick～...♥</t>
+  </si>
+  <si>
+    <t>Uhhn... Aaahhh...
+I'm sorry... Everyone...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahahahaha♥
+Just licking your face made you spurt out more semen♥
+This is beyond even my expectations♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You're already my guinea pig♥
+If you behave, I'll lick you some more.
+I look forward to working with you♥</t>
+  </si>
+  <si>
+    <t>\n[1] became a guniea pig...</t>
+  </si>
+  <si>
+    <t>\n[1] became a guinea pig...</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;\n[1]♥
+The moment you lost, you became our guinea pig.
+Do you understand your new role?</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Tee hee♥
+Your remaining SAN must've hit 0.
+You look like you've completely lost it♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;It's been a few days since we defeated you.
+It seems like your mind has finally snapped♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Mmm... Smack♥ Lick lick♥
+Thrusting your dick into Mama while I lick your face♥
+You're loving this♥ Lick lick♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Good work♥ \n[1]♥
+You're our guinea pig now♥ Liiiiiick♥
+Sluuuurp♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;If you cooperate, we won't have to hurt you.
+We'll do lots of naughty things instead♥
+Liiick～...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Ahaaa♥ You came again when I licked your face♥
+What a pervert♥
+Let me suck up your semen next♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;But they're still rock hard♥
+And it feels so good, eheehee♥
+I'd expect no less from a former hunter♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Ahh♥ Mama's kisses caused it to swell up again♥
+Such a simple reaction♥
+I'll have to make a note on that later♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Ahah♥ It twitched again after that kiss!
+Mama♥ They can't stand up to your kisses♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Heyy♥ You're starting to space out♥
+I wanna keep having fun!
+Wake up, \n[1]♥ Keep it up♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Ufufu♥
+\n[1]♥ You've become our little guinea pig.
+Don't bother resisting. Give in to your base desires♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Ufufu♥
+What a nice face♥
+Not a hint of resistance♥ What an honest look♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Now, give us all of your energy again♥
+You can spurt it out as many times as you'd like♥
+Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;You're shaking your hips all on your own now♥
+All those days of training paid off♥
+Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Ahnn♥ You came a lot again♥
+It's so hot inside...♥
+Ufufufufu♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Everybody has become very obedient♥
+They gave up on resisting once they realized they
+couldn't escape♥ And you are no different♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Nfufu♥
+Don't overwork them, Chocolat♥
+I've already drained them 20 times today.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;\n[1]♥
+Your mouth isn't busy now♥
+Kiss♥ Smooch♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Mmm♥ Kiss♥ Kiss♥
+Ahaa♥ Such a naughty child♥
+Come now♥ Squirt it all out inside Chocolat♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Any more, and they're as good as dead♥
+Tee hee♥ That's all for today.
+Tomorrow's another day of experiments♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Nfufu♥ Melt away in my kisses, now♥
+Smoooch♥ Kiss♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;That's a lovely look on your face♥
+So cute...♥
+Lick♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You don't have to think anymore.
+Smoooch♥ You've done so well so far.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You're such a good little child...♥
+So I just want to pamper and spoil you♥
+Hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I promise I'll take good care of you and your brother.
+Just surrender yourself to us♥
+Kiss♥ Smooch♥ Smooch♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I promise I'll take good care of you and your sister.
+Just surrender yourself to us♥
+Kiss♥ Smooch♥ Smooch♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;That's right♥ It feels so good, doesn't it♥
+Someone who makes you feel so good couldn't
+possibly be bad, right? Ufufu♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Now then♥ Come here♥
+Let Mama take care of all that arousal♥ I'll take you inside, 
+and squeeze out any remaining sense you have in your head♥</t>
+  </si>
+  <si>
+    <t>\C[10]Insert</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Now, now♥ Be honest with yourself♥
+You can't take your eyes off of my body, now can you♥
+Come♥ Plunge your hips inside♥ Let's finish this♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahaaah♥
+You put it in♥ Ahahahahahaha!!
+Did you actually stick it in? Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ku... Kukukuku♥
+So soon♥ You're just so greedy♥
+You only just stuck it in me♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Haa♥ You're too cute♥
+I can't believe you. Giving in to your enemy's temptation♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Mm...♥
+What's the matter? Smoooch♥
+Will you give me a kiss? Kiss♥ Kiss♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I've got you completely captivated, haven't I♥
+To think you had a sword pointed at me moments ago♥
+Kiiiiss♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Thrusting into the woman you hate♥
+Kissing her♥
+Making love to her♥ Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I will take in all of those emotions♥
+I'll love you for the rest of my life♥
+Come now♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;That's it♥ You came as much as you could♥
+You can't move anymore.
+You call yourself a hunter, but you're just a baby to me♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Putting aside Lily, I might find a use for you siblings.
+Since you can't seem to live without me, there will be plenty of time
+to break in that body of yours♥ Ohohohohoho♥</t>
+  </si>
+  <si>
+    <t>\n[1] became Velvet's servant...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Oh my. Are you ejaculating again?
+That's awfully fast♥
+Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You lost because of this thing you grew, no?
+Such a cute little girl♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;No man could ever hope to defeat me
+with such a glaring weakness attached to his body♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Oh, I'm not stopping yet.
+Did you think I'd let you off with just 2 ejaculations?
+Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I'm no succubus, of course. Their sexual techniques
+are trained to ensure that they are second to none.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;They are able to keep an erection going,
+making a person keep ejaculating until it kills them...
+Would you like to try that? Ufufu♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahaa♥ Don't look so frightened♥
+I wouldn't do that♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;From here on, I'll be brainwashing you with pleasure♥
+With my outstanding sexual techniques, \nI shall rape your very spirit♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Your precum will start to flow just from seeing my face,
+looking at my body, or hearing my voice♥
+My pleasure will imprint upon you♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahaa♥
+Your penis is just so simple to please♥
+Ufufufu♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;There's no need to even use my hands♥
+Hoora♥ How do you like that?
+The feel of my ass♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Tee hee♥
+Your big brother also came on my ass
+over and over again.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;He was so concerned about you, you know♥
+Saying he was going to kill me if I laid a hand on \n[1].
+And then he came, all over my ass♥ Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I drugged your sister with aphrodisiac,
+and I used my ass to make her orgasm over and over♥
+I don't think she could stand up after all those climaxes♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;She never lost faith in you though, that you'd rescue her...
+How do you think she'd feel if she saw you now♥
+I think it might just break her little heart♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Rub rub♥
+Your penis is trembling between my cheeks♥
+Hoora♥ It's about time to cum♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahhn♥ There's something hot on my ass♥
+Tee hee♥
+As I thought, both siblings are so sensitive♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I was just trying to give you a break♥
+I was only holding your penis gently
+between my ass cheeks...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You're so miserable and pathetic♥
+You deserve to squirm in agony within my ass♥
+Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;And now...♥
+You'll meet your messy end in the very same \nass that ruined your brother♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;And now...♥
+You'll meet your messy end in the very same \nass that broke your sister♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahahahaha!!
+Ejaculating as you desperately try to push my ass away♥
+You're so ridiculous♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ara ara♥
+Are you already at your limit?
+I wanted to torment you some more though♥</t>
+  </si>
+  <si>
+    <t>Velvet</t>
+  </si>
+  <si>
+    <t>Chocolat</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Look here...♥
+Stop this fighting and come over here...♥
+Ufufu♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahaan♥
+You're slouching forward♥
+Not very becoming of a hunter♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;My my♥
+Did you ejaculate?
+You must've been really turned on♥ Fufu♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Nfufu-♥ You've just been bathed in aphrodisiac♥
+Let it keep seeping into your brain♥
+Sniff me right here♥ Give it a lick♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You're dick is throbbing♥
+Are you about to cum even though I didn't touch it?
+Do you get off just from licking pussy? Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ufufu♥ Naïve child♥
+You got overexcited just looking at my breasts♥
+Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;How you ever fought succubi before is beyond me♥
+Ufufu♥
+My breasts are just that enchanting♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Honestly♥
+What a bad little child♥
+Weren't you supposed to defeat me?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Getting so horny by looking at your opponent's body that
+you start jerking off...♥ What an embarrassing sight this is.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;All I had to do was tempt you with my breasts,
+and you dropped your sword♥ Hora♥ \nYou can have a closer look if you want♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hora hora♥
+Do you want to suck my nipple? \nWould you like to bury your face between them?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Oh my♥ You've wet yourself again.
+You clearly lack discipline.
+Hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Were you not expecting an attack such as this?
+Ufufu♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Violence isn't the only way to dominate a person♥
+I'm quite skilled in these techniques as well.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Seduce them, ensnare them, corrupt them.
+Humans are natural slaves to pleasure.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Just like this...♥
+I sway my breasts a little, and your convictions begin to crumble♥
+Ufuuu～♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Your mission, your friends' lives, you see a pair
+of boobs, and that all goes out the window♥
+Isn't that right?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;That carnal hunger comes gushing up from within,
+and all you can think about is ejaculating♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;The moment your penis sprang up,
+you couldn't resist the temptation♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;The moment your penis sprang up,
+you couldn't resist the temptation♥
+Even though you're a woman♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Now♥ Cum for me♥
+Let that passion overflow more and more♥</t>
+  </si>
+  <si>
+    <t>No...
+No... More...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;My my♥ There's quite a bit of semen staining my legs♥
+Sticky, hot, smelly semen♥
+Was that about all you had in you?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Alright then, lick it clean♥
+That should prove your loyalty to me♥
+Come on♥ Come on♥ Get licking♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahn♥ Ahn♥
+As I'd expect from a hunter♥
+I don't stand a chance♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Oh? What was that?
+Could it be...
+No, it must've been nothing♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hah♥ Hah♥
+It feels so very good♥ Oh, \n[1]...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You're not just good with a sword,
+you've got quite the succubus-battling weapon♥
+Tee hee♥ Ahhhn♥ Ahhn♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You've pushed me to my limit for the
+very first time♥
+Ahaah♥ I think I'm going to cum♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;What an onslaught...♥
+At this rate♥ Ahn♥ Ahn♥
+I'm going to become \n[1]'s slave♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Tee hee♥You came so much♥
+Ufufu♥ Such a powerful ejaculation♥
+I feel like I'm going to melt♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Now it's my turn to attack♥
+How's that? Hunter♥
+How do you like the swing of my hips?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahn♥ Ahn♥ Ahhhn♥
+Your penis is so hard, I can't stand it♥
+Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahaaah♥
+Am I pleasuring you even a little bit?
+Mmm♥ Mmm♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hora♥ Hoora♥
+How do you like this move?
+Grind, grind, grind♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahaa♥ Are you clenching your teeth and enduring?
+How adorable♥ Ahhn♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahhh♥ You're swelling up again...♥
+I won't be beaten either♥
+Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahn♥ Ahn♥
+I think I'm at my limit♥
+...Pfft♥ Kukuku♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Get even harder-♥
+Make me cum♥
+Ahhhn♥ Ahhhn♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ah... Ahahahaha!
+Did you cum again by yourself?
+Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I can't believe you fell for such a weak performance♥
+You're such an adorable little hunter♥
+What a fun toy I've found for myself♥ Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahh♥ Ahh♥
+Did more sperm come out? Huh, huh?
+That's so funny♥ Kiss♥ Smooch♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You're getting aroused while your enemy licks your face.
+I think that's pretty embarrassing♥
+Lick♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Weren't you thinking about how you needed to win
+at all costs?
+Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Weren't you anticipating an attack like this?
+Did I really take you by surprise...?
+Sluuuurp♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ah, now I understand♥
+In truth, ever since we fooled around, you've been
+just dying to shoot your load with me♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;We did a lot of french kissing♥
+Tee hee♥ So that's how it is♥
+The smell of my saliva must've driven you insane♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You associate the smell of my saliva with sex♥
+Since you kept smelling my saliva during our battle,
+you eventually lost control♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Nfufu♥
+After all, a hunter is still just a human♥
+You can't resist your urges♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Even if you can endure pain and suffering,
+you can't endure your carnal desires♥
+Even though your friends' lives are at stake♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Tee hee♥
+I don't think you have the strength to resist anymore,
+but just in case, I'm going to drain you dry♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hora♥ Fap fap♥
+Lick lick lick♥
+Sluuuuuuurp♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;All the strength in your body, any thoughts of resistance,
+your cares for your friends,
+I'll squeeze them all out with my hand-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You are the lamest of all my test subjects,
+so I'll give you extra special treatment♥
+Nfufufu♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;There will be so many pleasure experiments,
+your head will be empty by the end♥
+I'll drain your penis, and your personality♥</t>
+  </si>
+  <si>
+    <t>Uuu.... Uwah...
+...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahahahaha♥
+In the end, you ejaculated, and fell madly in love♥
+Why did we ever start fighting in the first place?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;All this pointless resistance has wasted a lot of
+my precious time♥ Now, let's get back to the experiments!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Aaaaahh!! Oh no...! Can't endure!!!)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Puff♥ Puff♥
+Let yourself drown in my pillowy breasts-♥
+Squeeeze～～♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Mufufu-♥
+You squirted again without even being touched-♥
+It must drive you crazy, ejaculating with no stimulation.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Warm boobs♥
+Soft boobs♥
+When I squiiiish♥ you like that, your strength melts away♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I don't need a sword, or magic or machines♥
+No matter how strong they are, I can squiiiish♥
+anyone with my boobs, and beat them in one shot♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Each and every human grows up suckling
+on their mama's boobs♥ When I press my boobs
+into you, you'll revert back into a baby♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You're a brainless babbling baby♥
+You can't even walk♥
+I'll pamper you even more♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Forget about the fighting, forget everyone else.
+Forget everything, and bury yourself in my boobs-♥
+Come on, come on-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahh♥ You're gripping me so tightly♥
+Ahhhh♥ You shouldn't be doing that now, should you?
+Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;It's so bizarre, isn't it♥
+They're nothing more than mounds of fat♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahh, it's fine♥ They got so big♥
+I actually don't like how heavy they are...♥
+Eheehee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahaaa♥ You're so drowsy and weak♥
+Is it difficult to stand?
+Come, lie down♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;There♥ Rub♥ Rub♥
+Mmm...♥
+This rough grinding feels pretty good♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Yesss...♥
+Sure enough, even though I turned you into a baby, you're
+still a hunter. It could be dangerous to put you inside♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;For now, it would be best to just grind you against
+my pussy until you can't move anymore♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hmm? You wanted to put it in?
+Too bad♥
+We'll save that for next time♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;If you become my guinea pig, you can cum
+inside me as many times as you'd like♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Yes, yes♥ You came so much♥
+Can you still move?
+Are you conscious...? Ah. Not anymore♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Mama! I won♥
+Give me lots of praise♥
+Eheeheehee-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Mmm♥ Mmm♥
+Right there♥ That's so good♥
+Stick your tongue even deeper♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Mufufu♥
+Does my pussy taste good? Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hah...♥ Hah...♥
+Ahhh♥ This is incredible♥
+Fuhee♥ Fuheeheehee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Just moments ago you were trying to kill me♥
+Now you're licking me so frantically♥
+Ahaa♥ Ahahaha♥ Ahaaa♥ aahnnn...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;H-How interesting♥
+It would seem that I'm quite the sadist♥
+Bullying you sends shivers up my spine♥ Ahhn♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahn, ahn♥
+Th-this is amazing♥ I'm gonna cum...♥
+Ahn♥ Ahn♥ Ahn♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahhhhhnnnn♥♥♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hah...♥ Ahaha♥
+I came too♥ We both orgasmed together♥
+Eheehee♥ Oh, that was so good♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Between the aphrodisiac and my pussy
+juices, you're uncontrollably horny♥ Tee hee♥
+Go on, pleasure yourself♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Mufufu-♥
+That's it, stroke yourself off♥
+Good, good♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;If you keep doing what I say, I might
+even let you have sex with me♥
+How about that? Little monkey♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahaha♥ Your sperm shot out again♥
+Lily and the others are all watching in awe♥
+How utterly embarrassing♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Alright♥ Alright♥
+Then as a treat, I'll let you have a little sex♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Since you're about to cum, I'll put it in just a little♥
+I'll let my pussy deal the final blow♥
+Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Spurt out you complete, utter defeat
+with everybody watching♥
+Ahahaha!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Let's go now♥
+Are you ready?
+Three♥ Two♥ One♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hoooh～♥ How fantastic♥
+It's gushing out like a fountain♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Sorry I pulled you out as soon as you came♥
+I'm sure you were hoping to cum inside♥ Tee hee♥
+Another time♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hah...♥ Hah...♥
+Please cum♥ Inside me...♥
+All of it♥ All of it♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Mufufu-♥
+You did it♥ Tee hee♥
+You finally ejaculated♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hah...♥ Hah...♥
+Do you see this lust crest above my pussy?
+I drew it using magic power I collected from Lily♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Basically, I can absorb semen exactly like a succubus♥
+I've got Energy Drain♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Did you think it was ok to have sex since I was a human?
+Fuheheheh...♥
+How unfortunate♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;When you squirt inside me, I'll steal your power♥
+My pussy steals experience as well as semen♥
+Come on♥ Cum again for me♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I stole even more of your power♥
+The tables have turned♥
+Ahahahaha!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;It's all over the moment you give into temptation♥
+You should've known that as a hunter♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You made the choice to fall to me♥
+You even betrayed your friends♥
+Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You went out of your way to fuck me♥
+So how is it?
+Isn't it just, like, so incredible♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahaah♥ You ejaculated again♥
+It won't stop gushing and gushing♥
+I'm steadily draining your power♥ Isn't that nice?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;What you've done here can never be undone♥
+Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You really shouldn't have had sex with me♥
+No matter how horny you were, you really shouldn't have♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You had your enemy driven right to the edge, then you went
+and gave in to your lust, and you lost it all♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hora♥ I'll suck out even more♥
+You have no need for it now♥
+I'll absorb all of you into my womb♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;\C[10]Come now♥ Come inside me♥</t>
+  </si>
+  <si>
+    <t>Everything... Is being absorbed...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahh♥ I-I think I overdid it♥
+This...♥ A-Ahahahahaha♥
+This was an amazing experience♥ Hah♥ Hah♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;The power of a succubus is unbelievable♥
+Fuuh♥ Fuuh♥ I need to quickly document this sensation...♥
+\n[1]♥ Thank you for your cooperation♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Uwah... What's this...!
+It feels completely different... Than before...!
+This feels good...!)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You don't have to resist...♥
+Let it all out...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Uwaah...♥ Amazing♥
+So much came out♥
+Gulp♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Lick...♥ Smooch♥
+You've been so steadfast... Haven't you?
+Don't hold back now...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Th-this is only... A thank you...♥
+Mm...♥ Kiss♥
+Lick♥ Lick lick♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I have to reward...
+Such a hard working semen slave...♥
+Lick♥ Kiss♥ Smooch♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hah...♥ Hah...♥
+Mmm...♥ Lick♥ Sluurp♥
+(What's this...♥ Am I... Getting hot too...♥)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahhh...♥ Y-you came again...♥
+It must... Feel pretty good...♥
+Heheheh♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Mmm...♥ Kiss♥
+Hah...♥ Hah...♥
+(What is this... Weird feeling...♥)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Smooch♥ Smack♥ Smooch♥
+Lick♥ Kiiiiss♥
+(Even though I'm using my hand... I'm also...♥)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hah♥ Hah♥
+\n[1]...♥ Kiss♥ Smooooch♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Mm...♥ Just how pent up are you♥ Seriously♥
+Hora♥ Cum even more for me...♥
+(Aahh, What... Is this...♥)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;\n[1]...♥
+Lick lick lick♥
+(You're just a semen slave...♥ Just a semen slave...!!)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Lick♥ Lick lick♥
+\{(AAAH!!! I CAN'T TAKE THIS♥♥♥)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Aaahh...♥♥ It's no use...♥
+\n[1]...♥ Lick lick♥
+(I want... I want you to shoot it all out...♥)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;More...♥ Lick♥ Slurp♥
+Give me more...♥
+(I want it all for myself...♥)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;\n[1]...♥
+Cum for me♥ Cum for me♥ Cum for me♥
+Lick lick♥</t>
+  </si>
+  <si>
+    <t>Uuh...♥ Aaaah...♥
+All my energy... Is... Drained...
+...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Mmm♥♥♥ Haaahhn...♥
+Hah...♥ Hah...♥
+Uhn...♥ I came a little myself as well...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Oh... Oh my...
+I... Drained your energy. A-ahaha♥
+\n[1]? Helloooo...</t>
+  </si>
+  <si>
+    <t>\n[1] was drained by Lily...</t>
+  </si>
+  <si>
+    <t>\C[12]Resisted the Energy Drain!
+\C[0]\n[1] was slowed down...</t>
+  </si>
+  <si>
+    <t>\C[14]Level was sucked away...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Haaah～～～～!
+I can't believe you!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;You're finished!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;How about this?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;You'd better not lose!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Don't let me catch you getting sloppy, ok?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Hurry up, make 'em cum.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;\n[1]...
+You can do this...!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahahaha! Pew♥ Pew♥
+It's so cute while it's squirting♥
+You're such a loser♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Did you think you'd beat me by getting me
+high on silver vine? Kuheheheh♥ You fight dirty♥
+What shall I do with this cowardly little small fry♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hunting a beast in heat is super easy♥
+Just gotta swing my tits, and they flock to me♥
+Ahahahaha♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I love it so much♥ That scream♥
+It's making me hungry♥
+My body's hot and quivering♥♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I guess they knew by instinct that if they came too much,
+they'd drop dead♥ They'd frantically try to push my ass
+off them and run away♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Pretend to hate it all you want,
+your body is telling me it loves being drained♥
+Your body betrays you♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahahahaha♥♥♥
+I love that face you're making♥
+It's the same face all those dead guys made♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahaa♥ You came, you came♥ Pew pew♥
+My tits feel so, so good♥
+So good that it makes your head spin♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Tee hee♥ Oh come on♥ I was kidding♥
+Ahh♥ You're crying while you ejaculate♥
+You're too cute♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Good thing I caught you-♥
+There's nothing in this world that feels 
+better than my boobs-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I wonder if I'd tear you apart if I suck too hard♥
+Tee hee♥
+I'd better be more careful♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I've never seen an erection like this before♥
+The hardest cock I've seen in my entire life♥
+Ufufu♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You've never known such intense pleasure, have you? You can
+feel not just your body, but your mind is also slowly melting♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hoora♥
+If I press my ass right down to the floor,
+you'll get swallowed up♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahhh♥ You've gone limp from too many orgasms♥
+Perfect timing♥
+I'll finish by swallowing you♥</t>
+  </si>
+  <si>
+    <t>\n[1] was swallowed up by Orc's pussy...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;No matter how bitter the adversary, no matter how much
+animosity, you give a human a little peck♥
+And they fall head over heels for you♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Oh my♥ You've gotten confused and ejaculated again.
+It's a psychological response. Tee hee♥
+It's only natural♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Lick lick lick lick♥
+Hoora♥ Are your cheeks ticklish?
+Your whole face is coated in saliva♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;This next spurt will be the end of \n[1]♥
+The remainder of your life will be spent as my
+cute little lab animal♥</t>
   </si>
 </sst>
 </file>
@@ -25394,8 +27641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5527"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5397" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1139" sqref="C1139"/>
+    <sheetView tabSelected="1" topLeftCell="B4233" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4237" sqref="C4237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29491,7 +31738,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>526</v>
       </c>
@@ -29499,7 +31746,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>527</v>
       </c>
@@ -29507,17 +31754,17 @@
         <v>527</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>530</v>
       </c>
@@ -29525,7 +31772,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>531</v>
       </c>
@@ -29533,7 +31780,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>532</v>
       </c>
@@ -29541,7 +31788,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>533</v>
       </c>
@@ -29549,12 +31796,12 @@
         <v>533</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>535</v>
       </c>
@@ -29562,7 +31809,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>536</v>
       </c>
@@ -29570,119 +31817,146 @@
         <v>537</v>
       </c>
     </row>
-    <row r="540" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>538</v>
       </c>
-      <c r="B540" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A541" t="s">
+      <c r="C540" s="1" t="s">
+        <v>6499</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B541" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C541" s="1" t="s">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>540</v>
       </c>
-      <c r="B542" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C542" s="1" t="s">
+        <v>6501</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="544" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C543" s="1" t="s">
+        <v>6502</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="545" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C544" s="1" t="s">
+        <v>6503</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C545" s="1" t="s">
+        <v>6960</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="547" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C546" s="1" t="s">
+        <v>6504</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="548" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C547" s="1" t="s">
+        <v>6505</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C548" s="1" t="s">
+        <v>6501</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="550" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C549" t="s">
+        <v>6506</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="551" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C550" s="1" t="s">
+        <v>6507</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="552" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C551" s="1" t="s">
+        <v>6508</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="B552" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="C552" s="1" t="s">
+        <v>6509</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>558</v>
       </c>
@@ -32711,7 +34985,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="929" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
         <v>1159</v>
       </c>
@@ -32719,7 +34993,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="930" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
         <v>1161</v>
       </c>
@@ -32727,7 +35001,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
         <v>1163</v>
       </c>
@@ -32735,7 +35009,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
         <v>1165</v>
       </c>
@@ -32743,7 +35017,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="933" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
         <v>1167</v>
       </c>
@@ -32751,7 +35025,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="934" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
         <v>1169</v>
       </c>
@@ -32759,7 +35033,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
         <v>1171</v>
       </c>
@@ -32767,7 +35041,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="936" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
         <v>1172</v>
       </c>
@@ -32775,22 +35049,22 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="938" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="940" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
         <v>1177</v>
       </c>
@@ -32798,92 +35072,132 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A941" t="s">
+    <row r="941" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A941" s="3" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="942" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A942" t="s">
+      <c r="C941" s="3" t="s">
+        <v>6961</v>
+      </c>
+    </row>
+    <row r="942" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A942" s="3" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A943" t="s">
+      <c r="C942" s="3" t="s">
+        <v>6962</v>
+      </c>
+    </row>
+    <row r="943" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A943" s="3" t="s">
         <v>1181</v>
       </c>
-    </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A944" t="s">
+      <c r="C943" s="3" t="s">
+        <v>6963</v>
+      </c>
+    </row>
+    <row r="944" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A944" s="3" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A945" t="s">
+      <c r="C944" s="3" t="s">
+        <v>6964</v>
+      </c>
+    </row>
+    <row r="945" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A945" s="3" t="s">
         <v>1183</v>
       </c>
-    </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A946" t="s">
+      <c r="C945" s="3" t="s">
+        <v>6965</v>
+      </c>
+    </row>
+    <row r="946" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A946" s="2" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A947" t="s">
+      <c r="C946" s="2" t="s">
+        <v>6966</v>
+      </c>
+    </row>
+    <row r="947" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A947" s="2" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A948" t="s">
+      <c r="C947" s="2" t="s">
+        <v>6528</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A948" s="2" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A949" t="s">
+      <c r="C948" s="2" t="s">
+        <v>6529</v>
+      </c>
+    </row>
+    <row r="949" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A949" s="2" t="s">
         <v>1187</v>
       </c>
-    </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A950" t="s">
+      <c r="C949" s="2" t="s">
+        <v>6530</v>
+      </c>
+    </row>
+    <row r="950" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A950" s="2" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A951" t="s">
+      <c r="C950" s="2" t="s">
+        <v>6531</v>
+      </c>
+    </row>
+    <row r="951" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A951" s="2" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A952" t="s">
+      <c r="C951" s="2" t="s">
+        <v>6532</v>
+      </c>
+    </row>
+    <row r="952" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A952" s="2" t="s">
         <v>1190</v>
       </c>
-    </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A953" t="s">
+      <c r="C952" s="2" t="s">
+        <v>6533</v>
+      </c>
+    </row>
+    <row r="953" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A953" s="2" t="s">
         <v>1191</v>
       </c>
-    </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A954" t="s">
+      <c r="C953" s="2" t="s">
+        <v>6534</v>
+      </c>
+    </row>
+    <row r="954" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A954" s="2" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C954" s="2"/>
+    </row>
+    <row r="955" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="958" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
         <v>1196</v>
       </c>
@@ -32891,7 +35205,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
         <v>1197</v>
       </c>
@@ -32899,7 +35213,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
         <v>1198</v>
       </c>
@@ -44737,47 +47051,71 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="2433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2433" t="s">
         <v>2717</v>
       </c>
-    </row>
-    <row r="2434" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2434" t="s">
+      <c r="C2433" t="s">
+        <v>6821</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2434" s="1" t="s">
         <v>2718</v>
       </c>
-    </row>
-    <row r="2435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2434" s="1" t="s">
+        <v>6823</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2435" t="s">
         <v>2719</v>
       </c>
-    </row>
-    <row r="2436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2435" s="1" t="s">
+        <v>6824</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2436" t="s">
         <v>2720</v>
       </c>
-    </row>
-    <row r="2437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2436" s="1" t="s">
+        <v>6825</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2437" t="s">
         <v>2721</v>
       </c>
-    </row>
-    <row r="2438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2437" t="s">
+        <v>6822</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2438" t="s">
         <v>2722</v>
       </c>
-    </row>
-    <row r="2439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2438" s="1" t="s">
+        <v>6826</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2439" t="s">
         <v>2723</v>
       </c>
-    </row>
-    <row r="2440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2439" s="1" t="s">
+        <v>6827</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2440" t="s">
         <v>2724</v>
       </c>
-    </row>
-    <row r="2441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2440" s="1" t="s">
+        <v>6967</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2441" t="s">
         <v>2725</v>
       </c>
@@ -44785,7 +47123,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="2442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2442" t="s">
         <v>2727</v>
       </c>
@@ -44793,7 +47131,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="2443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2443" t="s">
         <v>2729</v>
       </c>
@@ -44801,7 +47139,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="2444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2444" t="s">
         <v>2731</v>
       </c>
@@ -44809,7 +47147,7 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="2445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2445" t="s">
         <v>2733</v>
       </c>
@@ -44817,7 +47155,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="2446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2446" t="s">
         <v>2735</v>
       </c>
@@ -44825,7 +47163,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="2447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2447" t="s">
         <v>2737</v>
       </c>
@@ -44833,7 +47171,7 @@
         <v>2738</v>
       </c>
     </row>
-    <row r="2448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2448" t="s">
         <v>2739</v>
       </c>
@@ -45609,7 +47947,7 @@
         <v>2931</v>
       </c>
     </row>
-    <row r="2545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2545" t="s">
         <v>2932</v>
       </c>
@@ -45617,7 +47955,7 @@
         <v>2933</v>
       </c>
     </row>
-    <row r="2546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2546" t="s">
         <v>2934</v>
       </c>
@@ -45625,7 +47963,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="2547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2547" t="s">
         <v>2936</v>
       </c>
@@ -45633,7 +47971,7 @@
         <v>2937</v>
       </c>
     </row>
-    <row r="2548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2548" t="s">
         <v>2938</v>
       </c>
@@ -45641,7 +47979,7 @@
         <v>2939</v>
       </c>
     </row>
-    <row r="2549" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2549" t="s">
         <v>2940</v>
       </c>
@@ -45649,7 +47987,7 @@
         <v>2941</v>
       </c>
     </row>
-    <row r="2550" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2550" t="s">
         <v>2942</v>
       </c>
@@ -45657,7 +47995,7 @@
         <v>2943</v>
       </c>
     </row>
-    <row r="2551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2551" t="s">
         <v>2944</v>
       </c>
@@ -45665,7 +48003,7 @@
         <v>2945</v>
       </c>
     </row>
-    <row r="2552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2552" t="s">
         <v>2946</v>
       </c>
@@ -45673,7 +48011,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="2553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2553" t="s">
         <v>2948</v>
       </c>
@@ -45681,7 +48019,7 @@
         <v>2949</v>
       </c>
     </row>
-    <row r="2554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2554" t="s">
         <v>2950</v>
       </c>
@@ -45689,7 +48027,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="2555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2555" t="s">
         <v>2952</v>
       </c>
@@ -45697,7 +48035,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="2556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2556" t="s">
         <v>2954</v>
       </c>
@@ -45705,7 +48043,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="2557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2557" t="s">
         <v>2956</v>
       </c>
@@ -45713,7 +48051,7 @@
         <v>2957</v>
       </c>
     </row>
-    <row r="2558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2558" t="s">
         <v>2958</v>
       </c>
@@ -45721,7 +48059,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="2559" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2559" t="s">
         <v>2960</v>
       </c>
@@ -45729,17 +48067,23 @@
         <v>2961</v>
       </c>
     </row>
-    <row r="2560" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2560" t="s">
+    <row r="2560" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2560" s="2" t="s">
         <v>2962</v>
       </c>
-    </row>
-    <row r="2561" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2561" t="s">
+      <c r="C2560" s="2" t="s">
+        <v>6511</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2561" s="2" t="s">
         <v>2963</v>
       </c>
-    </row>
-    <row r="2562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2561" s="2" t="s">
+        <v>6512</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2562" t="s">
         <v>2964</v>
       </c>
@@ -45747,7 +48091,7 @@
         <v>2964</v>
       </c>
     </row>
-    <row r="2563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2563" t="s">
         <v>2965</v>
       </c>
@@ -45755,7 +48099,7 @@
         <v>2966</v>
       </c>
     </row>
-    <row r="2564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2564" t="s">
         <v>2967</v>
       </c>
@@ -45763,7 +48107,7 @@
         <v>2967</v>
       </c>
     </row>
-    <row r="2565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2565" t="s">
         <v>2968</v>
       </c>
@@ -45771,22 +48115,22 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="2566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2566" t="s">
         <v>2969</v>
       </c>
     </row>
-    <row r="2567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2567" t="s">
         <v>2970</v>
       </c>
     </row>
-    <row r="2568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2568" t="s">
         <v>2971</v>
       </c>
     </row>
-    <row r="2569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2569" t="s">
         <v>2972</v>
       </c>
@@ -45794,7 +48138,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="2570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2570" t="s">
         <v>2973</v>
       </c>
@@ -45802,7 +48146,7 @@
         <v>2973</v>
       </c>
     </row>
-    <row r="2571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2571" t="s">
         <v>2974</v>
       </c>
@@ -45810,7 +48154,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="2572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2572" t="s">
         <v>2975</v>
       </c>
@@ -45818,7 +48162,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="2573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2573" t="s">
         <v>2976</v>
       </c>
@@ -45826,7 +48170,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="2574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2574" t="s">
         <v>2977</v>
       </c>
@@ -45834,7 +48178,7 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="2575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2575" t="s">
         <v>2978</v>
       </c>
@@ -45842,7 +48186,7 @@
         <v>2978</v>
       </c>
     </row>
-    <row r="2576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2576" t="s">
         <v>2979</v>
       </c>
@@ -57106,1988 +59450,3155 @@
         <v>6376</v>
       </c>
     </row>
-    <row r="3909" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3909" t="s">
+    <row r="3909" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3909" s="2" t="s">
         <v>4416</v>
       </c>
-    </row>
-    <row r="3910" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3909" s="2" t="s">
+        <v>6570</v>
+      </c>
+    </row>
+    <row r="3910" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3910" t="s">
         <v>4417</v>
       </c>
-    </row>
-    <row r="3911" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3910" s="2" t="s">
+        <v>6571</v>
+      </c>
+    </row>
+    <row r="3911" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3911" t="s">
         <v>4418</v>
       </c>
-    </row>
-    <row r="3912" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3911" s="2" t="s">
+        <v>6572</v>
+      </c>
+    </row>
+    <row r="3912" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3912" t="s">
         <v>4419</v>
       </c>
-    </row>
-    <row r="3913" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3912" s="2" t="s">
+        <v>6573</v>
+      </c>
+    </row>
+    <row r="3913" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3913" t="s">
         <v>4420</v>
       </c>
-    </row>
-    <row r="3914" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3913" s="2" t="s">
+        <v>6574</v>
+      </c>
+    </row>
+    <row r="3914" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3914" t="s">
         <v>4421</v>
       </c>
-    </row>
-    <row r="3915" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3914" s="2" t="s">
+        <v>6575</v>
+      </c>
+    </row>
+    <row r="3915" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3915" t="s">
         <v>4422</v>
       </c>
-    </row>
-    <row r="3916" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3915" s="2" t="s">
+        <v>6576</v>
+      </c>
+    </row>
+    <row r="3916" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3916" t="s">
         <v>4423</v>
       </c>
-    </row>
-    <row r="3917" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3916" s="2" t="s">
+        <v>6577</v>
+      </c>
+    </row>
+    <row r="3917" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3917" t="s">
         <v>4424</v>
       </c>
-    </row>
-    <row r="3918" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3917" s="2" t="s">
+        <v>6578</v>
+      </c>
+    </row>
+    <row r="3918" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3918" t="s">
         <v>4425</v>
       </c>
-    </row>
-    <row r="3919" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3918" s="2" t="s">
+        <v>6579</v>
+      </c>
+    </row>
+    <row r="3919" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3919" t="s">
         <v>4426</v>
       </c>
-    </row>
-    <row r="3920" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3919" s="2" t="s">
+        <v>6580</v>
+      </c>
+    </row>
+    <row r="3920" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3920" t="s">
         <v>4427</v>
       </c>
-    </row>
-    <row r="3921" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3920" s="2" t="s">
+        <v>6581</v>
+      </c>
+    </row>
+    <row r="3921" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3921" t="s">
         <v>4428</v>
       </c>
-    </row>
-    <row r="3922" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3921" s="2" t="s">
+        <v>6582</v>
+      </c>
+    </row>
+    <row r="3922" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3922" t="s">
         <v>4429</v>
       </c>
-    </row>
-    <row r="3923" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3922" s="2" t="s">
+        <v>6584</v>
+      </c>
+    </row>
+    <row r="3923" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3923" t="s">
         <v>4430</v>
       </c>
-    </row>
-    <row r="3924" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3923" s="2" t="s">
+        <v>6583</v>
+      </c>
+    </row>
+    <row r="3924" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3924" t="s">
         <v>4431</v>
       </c>
-    </row>
-    <row r="3925" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3924" s="2" t="s">
+        <v>6585</v>
+      </c>
+    </row>
+    <row r="3925" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3925" t="s">
         <v>4432</v>
       </c>
-    </row>
-    <row r="3926" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3925" s="2" t="s">
+        <v>6586</v>
+      </c>
+    </row>
+    <row r="3926" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3926" t="s">
         <v>4433</v>
       </c>
-    </row>
-    <row r="3927" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3926" s="3" t="s">
+        <v>6587</v>
+      </c>
+    </row>
+    <row r="3927" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3927" t="s">
         <v>4434</v>
       </c>
-    </row>
-    <row r="3928" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3928" t="s">
+      <c r="C3927" s="2" t="s">
+        <v>6588</v>
+      </c>
+    </row>
+    <row r="3928" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3928" s="2" t="s">
         <v>4435</v>
       </c>
-    </row>
-    <row r="3929" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3928" s="2" t="s">
+        <v>6535</v>
+      </c>
+    </row>
+    <row r="3929" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3929" t="s">
         <v>4436</v>
       </c>
-    </row>
-    <row r="3930" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3929" s="2" t="s">
+        <v>6554</v>
+      </c>
+    </row>
+    <row r="3930" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3930" t="s">
         <v>4437</v>
       </c>
-    </row>
-    <row r="3931" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3930" s="2" t="s">
+        <v>6968</v>
+      </c>
+    </row>
+    <row r="3931" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3931" t="s">
         <v>4438</v>
       </c>
-    </row>
-    <row r="3932" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3931" s="2" t="s">
+        <v>6555</v>
+      </c>
+    </row>
+    <row r="3932" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3932" t="s">
         <v>4439</v>
       </c>
-    </row>
-    <row r="3933" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3932" s="2" t="s">
+        <v>6556</v>
+      </c>
+    </row>
+    <row r="3933" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3933" t="s">
         <v>4440</v>
       </c>
-    </row>
-    <row r="3934" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3933" s="2" t="s">
+        <v>6557</v>
+      </c>
+    </row>
+    <row r="3934" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3934" t="s">
         <v>4441</v>
       </c>
-    </row>
-    <row r="3935" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3934" s="2" t="s">
+        <v>6558</v>
+      </c>
+    </row>
+    <row r="3935" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3935" t="s">
         <v>4442</v>
       </c>
-    </row>
-    <row r="3936" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3935" s="2" t="s">
+        <v>6559</v>
+      </c>
+    </row>
+    <row r="3936" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3936" t="s">
         <v>4443</v>
       </c>
-    </row>
-    <row r="3937" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3936" s="2" t="s">
+        <v>6560</v>
+      </c>
+    </row>
+    <row r="3937" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3937" t="s">
         <v>4444</v>
       </c>
-    </row>
-    <row r="3938" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3937" s="2" t="s">
+        <v>6969</v>
+      </c>
+    </row>
+    <row r="3938" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3938" t="s">
         <v>4445</v>
       </c>
-    </row>
-    <row r="3939" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3938" s="2" t="s">
+        <v>6561</v>
+      </c>
+    </row>
+    <row r="3939" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3939" t="s">
         <v>4446</v>
       </c>
-    </row>
-    <row r="3940" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3939" s="2" t="s">
+        <v>6562</v>
+      </c>
+    </row>
+    <row r="3940" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3940" t="s">
         <v>4447</v>
       </c>
-    </row>
-    <row r="3941" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3940" s="3" t="s">
+        <v>6563</v>
+      </c>
+    </row>
+    <row r="3941" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3941" t="s">
         <v>4448</v>
       </c>
-    </row>
-    <row r="3942" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3941" s="2" t="s">
+        <v>6564</v>
+      </c>
+    </row>
+    <row r="3942" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3942" t="s">
         <v>4449</v>
       </c>
-    </row>
-    <row r="3943" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3942" s="2" t="s">
+        <v>6970</v>
+      </c>
+    </row>
+    <row r="3943" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3943" t="s">
         <v>4450</v>
       </c>
-    </row>
-    <row r="3944" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3943" s="2" t="s">
+        <v>6565</v>
+      </c>
+    </row>
+    <row r="3944" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3944" t="s">
         <v>4451</v>
       </c>
-    </row>
-    <row r="3945" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3944" s="3" t="s">
+        <v>6566</v>
+      </c>
+    </row>
+    <row r="3945" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3945" t="s">
         <v>4452</v>
       </c>
-    </row>
-    <row r="3946" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3945" s="2" t="s">
+        <v>6568</v>
+      </c>
+    </row>
+    <row r="3946" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3946" t="s">
         <v>4453</v>
       </c>
-    </row>
-    <row r="3947" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3946" s="2" t="s">
+        <v>6569</v>
+      </c>
+    </row>
+    <row r="3947" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3947" t="s">
         <v>4454</v>
       </c>
-    </row>
-    <row r="3948" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3948" t="s">
+      <c r="C3947" s="3" t="s">
+        <v>6567</v>
+      </c>
+    </row>
+    <row r="3948" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3948" s="2" t="s">
         <v>4455</v>
       </c>
-    </row>
-    <row r="3949" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3949" t="s">
+      <c r="C3948" s="2" t="s">
+        <v>6510</v>
+      </c>
+    </row>
+    <row r="3949" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3949" s="2" t="s">
         <v>4456</v>
       </c>
-    </row>
-    <row r="3950" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3950" t="s">
+      <c r="C3949" s="2" t="s">
+        <v>6513</v>
+      </c>
+    </row>
+    <row r="3950" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3950" s="2" t="s">
         <v>4457</v>
       </c>
-    </row>
-    <row r="3951" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3951" t="s">
+      <c r="C3950" s="2" t="s">
+        <v>6514</v>
+      </c>
+    </row>
+    <row r="3951" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3951" s="2" t="s">
         <v>4458</v>
       </c>
-    </row>
-    <row r="3952" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3952" t="s">
+      <c r="C3951" s="2" t="s">
+        <v>6515</v>
+      </c>
+    </row>
+    <row r="3952" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3952" s="2" t="s">
         <v>4459</v>
       </c>
-    </row>
-    <row r="3953" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3953" t="s">
+      <c r="C3952" s="2" t="s">
+        <v>6516</v>
+      </c>
+    </row>
+    <row r="3953" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3953" s="2" t="s">
         <v>4460</v>
       </c>
-    </row>
-    <row r="3954" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3954" t="s">
+      <c r="C3953" s="2" t="s">
+        <v>6971</v>
+      </c>
+    </row>
+    <row r="3954" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3954" s="2" t="s">
         <v>4461</v>
       </c>
-    </row>
-    <row r="3955" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3955" t="s">
+      <c r="C3954" s="2" t="s">
+        <v>6517</v>
+      </c>
+    </row>
+    <row r="3955" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3955" s="2" t="s">
         <v>4462</v>
       </c>
-    </row>
-    <row r="3956" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3956" t="s">
+      <c r="C3955" s="2" t="s">
+        <v>6518</v>
+      </c>
+    </row>
+    <row r="3956" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3956" s="2" t="s">
         <v>4463</v>
       </c>
-    </row>
-    <row r="3957" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3957" t="s">
+      <c r="C3956" s="2" t="s">
+        <v>6972</v>
+      </c>
+    </row>
+    <row r="3957" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3957" s="2" t="s">
         <v>4464</v>
       </c>
-    </row>
-    <row r="3958" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3958" t="s">
+      <c r="C3957" s="2" t="s">
+        <v>6519</v>
+      </c>
+    </row>
+    <row r="3958" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3958" s="2" t="s">
         <v>4465</v>
       </c>
-    </row>
-    <row r="3959" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3959" t="s">
+      <c r="C3958" s="2" t="s">
+        <v>6973</v>
+      </c>
+    </row>
+    <row r="3959" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3959" s="2" t="s">
         <v>4466</v>
       </c>
-    </row>
-    <row r="3960" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3960" t="s">
+      <c r="C3959" s="2" t="s">
+        <v>6520</v>
+      </c>
+    </row>
+    <row r="3960" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3960" s="2" t="s">
         <v>4467</v>
       </c>
-    </row>
-    <row r="3961" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3961" t="s">
+      <c r="C3960" s="2" t="s">
+        <v>6521</v>
+      </c>
+    </row>
+    <row r="3961" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3961" s="2" t="s">
         <v>4468</v>
       </c>
-    </row>
-    <row r="3962" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3962" t="s">
+      <c r="C3961" s="2" t="s">
+        <v>6522</v>
+      </c>
+    </row>
+    <row r="3962" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3962" s="2" t="s">
         <v>4469</v>
       </c>
-    </row>
-    <row r="3963" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3963" t="s">
+      <c r="C3962" s="2" t="s">
+        <v>6523</v>
+      </c>
+    </row>
+    <row r="3963" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3963" s="2" t="s">
         <v>4470</v>
       </c>
-    </row>
-    <row r="3964" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3964" t="s">
+      <c r="C3963" s="2" t="s">
+        <v>6524</v>
+      </c>
+    </row>
+    <row r="3964" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3964" s="2" t="s">
         <v>4471</v>
       </c>
-    </row>
-    <row r="3965" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3965" t="s">
+      <c r="C3964" s="2" t="s">
+        <v>6525</v>
+      </c>
+    </row>
+    <row r="3965" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3965" s="2" t="s">
         <v>4472</v>
       </c>
-    </row>
-    <row r="3966" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3966" t="s">
+      <c r="C3965" s="2" t="s">
+        <v>6526</v>
+      </c>
+    </row>
+    <row r="3966" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3966" s="2" t="s">
         <v>4473</v>
       </c>
-    </row>
-    <row r="3967" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3967" t="s">
+      <c r="C3966" s="2" t="s">
+        <v>6527</v>
+      </c>
+    </row>
+    <row r="3967" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3967" s="2" t="s">
         <v>4474</v>
       </c>
-    </row>
-    <row r="3968" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3967" s="2" t="s">
+        <v>6536</v>
+      </c>
+    </row>
+    <row r="3968" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3968" t="s">
         <v>4475</v>
       </c>
-    </row>
-    <row r="3969" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3968" s="2" t="s">
+        <v>6537</v>
+      </c>
+    </row>
+    <row r="3969" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3969" t="s">
         <v>4476</v>
       </c>
-    </row>
-    <row r="3970" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3969" s="2" t="s">
+        <v>6538</v>
+      </c>
+    </row>
+    <row r="3970" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3970" t="s">
         <v>4477</v>
       </c>
-    </row>
-    <row r="3971" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3970" s="2" t="s">
+        <v>6539</v>
+      </c>
+    </row>
+    <row r="3971" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3971" t="s">
         <v>4478</v>
       </c>
-    </row>
-    <row r="3972" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3971" s="2" t="s">
+        <v>6540</v>
+      </c>
+    </row>
+    <row r="3972" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3972" t="s">
         <v>4479</v>
       </c>
-    </row>
-    <row r="3973" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3972" s="2" t="s">
+        <v>6541</v>
+      </c>
+    </row>
+    <row r="3973" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3973" t="s">
         <v>4480</v>
       </c>
-    </row>
-    <row r="3974" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3973" s="2" t="s">
+        <v>6974</v>
+      </c>
+    </row>
+    <row r="3974" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3974" t="s">
         <v>4481</v>
       </c>
-    </row>
-    <row r="3975" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3974" s="2" t="s">
+        <v>6542</v>
+      </c>
+    </row>
+    <row r="3975" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3975" t="s">
         <v>4482</v>
       </c>
-    </row>
-    <row r="3976" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3975" s="2" t="s">
+        <v>6543</v>
+      </c>
+    </row>
+    <row r="3976" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3976" t="s">
         <v>4483</v>
       </c>
-    </row>
-    <row r="3977" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3976" s="2" t="s">
+        <v>6544</v>
+      </c>
+    </row>
+    <row r="3977" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3977" t="s">
         <v>4484</v>
       </c>
-    </row>
-    <row r="3978" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3977" s="2" t="s">
+        <v>6545</v>
+      </c>
+    </row>
+    <row r="3978" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3978" t="s">
         <v>4485</v>
       </c>
-    </row>
-    <row r="3979" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3978" s="2" t="s">
+        <v>6546</v>
+      </c>
+    </row>
+    <row r="3979" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3979" t="s">
         <v>4486</v>
       </c>
-    </row>
-    <row r="3980" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3979" s="2" t="s">
+        <v>6547</v>
+      </c>
+    </row>
+    <row r="3980" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3980" t="s">
         <v>4487</v>
       </c>
-    </row>
-    <row r="3981" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3980" s="2" t="s">
+        <v>6548</v>
+      </c>
+    </row>
+    <row r="3981" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3981" t="s">
         <v>4488</v>
       </c>
-    </row>
-    <row r="3982" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3981" s="2" t="s">
+        <v>6549</v>
+      </c>
+    </row>
+    <row r="3982" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3982" t="s">
         <v>4489</v>
       </c>
-    </row>
-    <row r="3983" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3982" s="2" t="s">
+        <v>6550</v>
+      </c>
+    </row>
+    <row r="3983" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3983" t="s">
         <v>4490</v>
       </c>
-    </row>
-    <row r="3984" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3983" s="2" t="s">
+        <v>6551</v>
+      </c>
+    </row>
+    <row r="3984" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3984" t="s">
         <v>4491</v>
       </c>
-    </row>
-    <row r="3985" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3984" s="2" t="s">
+        <v>6552</v>
+      </c>
+    </row>
+    <row r="3985" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3985" t="s">
         <v>4492</v>
       </c>
-    </row>
-    <row r="3986" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3986" t="s">
+      <c r="C3985" s="3" t="s">
+        <v>6553</v>
+      </c>
+    </row>
+    <row r="3986" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3986" s="2" t="s">
         <v>4493</v>
       </c>
-    </row>
-    <row r="3987" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3986" s="2" t="s">
+        <v>6654</v>
+      </c>
+    </row>
+    <row r="3987" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3987" t="s">
         <v>4494</v>
       </c>
-    </row>
-    <row r="3988" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3987" s="2" t="s">
+        <v>6655</v>
+      </c>
+    </row>
+    <row r="3988" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3988" t="s">
         <v>4495</v>
       </c>
-    </row>
-    <row r="3989" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3988" s="2" t="s">
+        <v>6656</v>
+      </c>
+    </row>
+    <row r="3989" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3989" t="s">
         <v>4496</v>
       </c>
-    </row>
-    <row r="3990" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3989" s="2" t="s">
+        <v>6657</v>
+      </c>
+    </row>
+    <row r="3990" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3990" t="s">
         <v>4497</v>
       </c>
-    </row>
-    <row r="3991" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3990" s="2" t="s">
+        <v>6658</v>
+      </c>
+    </row>
+    <row r="3991" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3991" t="s">
         <v>4498</v>
       </c>
-    </row>
-    <row r="3992" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3991" s="2" t="s">
+        <v>6659</v>
+      </c>
+    </row>
+    <row r="3992" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3992" t="s">
         <v>4499</v>
       </c>
-    </row>
-    <row r="3993" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3992" s="2" t="s">
+        <v>6660</v>
+      </c>
+    </row>
+    <row r="3993" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3993" t="s">
         <v>4500</v>
       </c>
-    </row>
-    <row r="3994" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3993" s="2" t="s">
+        <v>6661</v>
+      </c>
+    </row>
+    <row r="3994" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3994" t="s">
         <v>4501</v>
       </c>
-    </row>
-    <row r="3995" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3994" s="2" t="s">
+        <v>6662</v>
+      </c>
+    </row>
+    <row r="3995" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3995" t="s">
         <v>4502</v>
       </c>
-    </row>
-    <row r="3996" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3995" s="2" t="s">
+        <v>6663</v>
+      </c>
+    </row>
+    <row r="3996" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3996" t="s">
         <v>4503</v>
       </c>
-    </row>
-    <row r="3997" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3996" s="2" t="s">
+        <v>6664</v>
+      </c>
+    </row>
+    <row r="3997" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3997" t="s">
         <v>4504</v>
       </c>
-    </row>
-    <row r="3998" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3997" s="2" t="s">
+        <v>6665</v>
+      </c>
+    </row>
+    <row r="3998" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3998" t="s">
         <v>4505</v>
       </c>
-    </row>
-    <row r="3999" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3998" s="2" t="s">
+        <v>6666</v>
+      </c>
+    </row>
+    <row r="3999" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3999" t="s">
         <v>4506</v>
       </c>
-    </row>
-    <row r="4000" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3999" s="2" t="s">
+        <v>6667</v>
+      </c>
+    </row>
+    <row r="4000" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4000" t="s">
         <v>4507</v>
       </c>
-    </row>
-    <row r="4001" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4000" s="2" t="s">
+        <v>6668</v>
+      </c>
+    </row>
+    <row r="4001" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4001" t="s">
         <v>4508</v>
       </c>
-    </row>
-    <row r="4002" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4001" s="2" t="s">
+        <v>6669</v>
+      </c>
+    </row>
+    <row r="4002" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4002" t="s">
         <v>4509</v>
       </c>
-    </row>
-    <row r="4003" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4002" s="2" t="s">
+        <v>6670</v>
+      </c>
+    </row>
+    <row r="4003" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4003" t="s">
         <v>4510</v>
       </c>
-    </row>
-    <row r="4004" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4003" s="2" t="s">
+        <v>6671</v>
+      </c>
+    </row>
+    <row r="4004" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4004" t="s">
         <v>4511</v>
       </c>
-    </row>
-    <row r="4005" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4004" s="2" t="s">
+        <v>6672</v>
+      </c>
+    </row>
+    <row r="4005" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4005" t="s">
         <v>4512</v>
       </c>
-    </row>
-    <row r="4006" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4005" s="2" t="s">
+        <v>6975</v>
+      </c>
+    </row>
+    <row r="4006" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4006" t="s">
         <v>4513</v>
       </c>
-    </row>
-    <row r="4007" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4006" s="2" t="s">
+        <v>6673</v>
+      </c>
+    </row>
+    <row r="4007" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4007" t="s">
         <v>4514</v>
       </c>
-    </row>
-    <row r="4008" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4007" s="2" t="s">
+        <v>6674</v>
+      </c>
+    </row>
+    <row r="4008" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4008" t="s">
         <v>4515</v>
       </c>
-    </row>
-    <row r="4009" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4008" s="2" t="s">
+        <v>6675</v>
+      </c>
+    </row>
+    <row r="4009" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4009" t="s">
         <v>4516</v>
       </c>
-    </row>
-    <row r="4010" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4009" s="3" t="s">
+        <v>6676</v>
+      </c>
+    </row>
+    <row r="4010" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4010" t="s">
         <v>4517</v>
       </c>
-    </row>
-    <row r="4011" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4010" s="2" t="s">
+        <v>6677</v>
+      </c>
+    </row>
+    <row r="4011" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4011" t="s">
         <v>4518</v>
       </c>
-    </row>
-    <row r="4012" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4011" s="2" t="s">
+        <v>6678</v>
+      </c>
+    </row>
+    <row r="4012" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4012" t="s">
         <v>4519</v>
       </c>
-    </row>
-    <row r="4013" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4012" s="2" t="s">
+        <v>6679</v>
+      </c>
+    </row>
+    <row r="4013" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4013" t="s">
         <v>4520</v>
       </c>
-    </row>
-    <row r="4014" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4013" s="2" t="s">
+        <v>6680</v>
+      </c>
+    </row>
+    <row r="4014" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4014" t="s">
         <v>4521</v>
       </c>
-    </row>
-    <row r="4015" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4014" s="2" t="s">
+        <v>6681</v>
+      </c>
+    </row>
+    <row r="4015" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4015" t="s">
         <v>4522</v>
       </c>
-    </row>
-    <row r="4016" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4015" s="2" t="s">
+        <v>6682</v>
+      </c>
+    </row>
+    <row r="4016" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4016" t="s">
         <v>4523</v>
       </c>
-    </row>
-    <row r="4017" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4016" s="2" t="s">
+        <v>6683</v>
+      </c>
+    </row>
+    <row r="4017" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4017" t="s">
         <v>4524</v>
       </c>
-    </row>
-    <row r="4018" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4017" s="2" t="s">
+        <v>6684</v>
+      </c>
+    </row>
+    <row r="4018" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4018" t="s">
         <v>4525</v>
       </c>
-    </row>
-    <row r="4019" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4018" s="2" t="s">
+        <v>6976</v>
+      </c>
+    </row>
+    <row r="4019" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4019" t="s">
         <v>4526</v>
       </c>
-    </row>
-    <row r="4020" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4019" s="2" t="s">
+        <v>6685</v>
+      </c>
+    </row>
+    <row r="4020" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4020" t="s">
         <v>4527</v>
       </c>
-    </row>
-    <row r="4021" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4020" s="2" t="s">
+        <v>6686</v>
+      </c>
+    </row>
+    <row r="4021" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4021" t="s">
         <v>4528</v>
       </c>
-    </row>
-    <row r="4022" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4021" s="2" t="s">
+        <v>6687</v>
+      </c>
+    </row>
+    <row r="4022" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4022" t="s">
         <v>4529</v>
       </c>
-    </row>
-    <row r="4023" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4022" s="2" t="s">
+        <v>6688</v>
+      </c>
+    </row>
+    <row r="4023" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4023" t="s">
         <v>4530</v>
       </c>
-    </row>
-    <row r="4024" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4023" s="2" t="s">
+        <v>6689</v>
+      </c>
+    </row>
+    <row r="4024" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4024" t="s">
         <v>4531</v>
       </c>
-    </row>
-    <row r="4025" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4024" s="2" t="s">
+        <v>6690</v>
+      </c>
+    </row>
+    <row r="4025" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4025" t="s">
         <v>4532</v>
       </c>
     </row>
-    <row r="4026" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4026" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4026" t="s">
         <v>4533</v>
       </c>
     </row>
-    <row r="4027" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4027" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4027" t="s">
         <v>4534</v>
       </c>
-    </row>
-    <row r="4028" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4027" s="3" t="s">
+        <v>6691</v>
+      </c>
+    </row>
+    <row r="4028" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4028" t="s">
         <v>4535</v>
       </c>
-    </row>
-    <row r="4029" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4028" s="3" t="s">
+        <v>6704</v>
+      </c>
+    </row>
+    <row r="4029" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4029" t="s">
         <v>4536</v>
       </c>
-    </row>
-    <row r="4030" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4029" s="2" t="s">
+        <v>6705</v>
+      </c>
+    </row>
+    <row r="4030" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4030" t="s">
         <v>4537</v>
       </c>
-    </row>
-    <row r="4031" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4030" s="2" t="s">
+        <v>6706</v>
+      </c>
+    </row>
+    <row r="4031" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4031" t="s">
         <v>4538</v>
       </c>
-    </row>
-    <row r="4032" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4031" s="2" t="s">
+        <v>6707</v>
+      </c>
+    </row>
+    <row r="4032" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4032" t="s">
         <v>4539</v>
       </c>
-    </row>
-    <row r="4033" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4032" s="2" t="s">
+        <v>6977</v>
+      </c>
+    </row>
+    <row r="4033" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4033" t="s">
         <v>4540</v>
       </c>
-    </row>
-    <row r="4034" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4033" s="2" t="s">
+        <v>6708</v>
+      </c>
+    </row>
+    <row r="4034" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4034" t="s">
         <v>4541</v>
       </c>
-    </row>
-    <row r="4035" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4034" s="2" t="s">
+        <v>6709</v>
+      </c>
+    </row>
+    <row r="4035" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4035" t="s">
         <v>4542</v>
       </c>
-    </row>
-    <row r="4036" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4035" s="2" t="s">
+        <v>6710</v>
+      </c>
+    </row>
+    <row r="4036" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4036" t="s">
         <v>4543</v>
       </c>
-    </row>
-    <row r="4037" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4036" s="2" t="s">
+        <v>6711</v>
+      </c>
+    </row>
+    <row r="4037" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4037" t="s">
         <v>4544</v>
       </c>
-    </row>
-    <row r="4038" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4037" s="2" t="s">
+        <v>6978</v>
+      </c>
+    </row>
+    <row r="4038" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4038" t="s">
         <v>4545</v>
       </c>
-    </row>
-    <row r="4039" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4038" s="2" t="s">
+        <v>6712</v>
+      </c>
+    </row>
+    <row r="4039" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4039" t="s">
         <v>4546</v>
       </c>
-    </row>
-    <row r="4040" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4040" t="s">
+      <c r="C4039" s="2" t="s">
+        <v>6713</v>
+      </c>
+    </row>
+    <row r="4040" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4040" s="2" t="s">
         <v>4547</v>
       </c>
-    </row>
-    <row r="4041" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4040" s="2" t="s">
+        <v>6714</v>
+      </c>
+    </row>
+    <row r="4041" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4041" t="s">
         <v>4548</v>
       </c>
-    </row>
-    <row r="4042" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4041" s="2" t="s">
+        <v>6715</v>
+      </c>
+    </row>
+    <row r="4042" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4042" t="s">
         <v>4549</v>
       </c>
-    </row>
-    <row r="4043" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4042" s="2" t="s">
+        <v>6716</v>
+      </c>
+    </row>
+    <row r="4043" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4043" t="s">
         <v>4550</v>
       </c>
-    </row>
-    <row r="4044" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4043" s="2" t="s">
+        <v>6717</v>
+      </c>
+    </row>
+    <row r="4044" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4044" t="s">
         <v>4551</v>
       </c>
-    </row>
-    <row r="4045" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4044" s="2" t="s">
+        <v>6718</v>
+      </c>
+    </row>
+    <row r="4045" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4045" t="s">
         <v>4552</v>
       </c>
-    </row>
-    <row r="4046" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4045" s="2" t="s">
+        <v>6719</v>
+      </c>
+    </row>
+    <row r="4046" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4046" t="s">
         <v>4553</v>
       </c>
-    </row>
-    <row r="4047" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4046" s="3" t="s">
+        <v>6720</v>
+      </c>
+    </row>
+    <row r="4047" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4047" t="s">
         <v>4554</v>
       </c>
-    </row>
-    <row r="4048" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4047" s="2" t="s">
+        <v>6692</v>
+      </c>
+    </row>
+    <row r="4048" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4048" t="s">
         <v>4555</v>
       </c>
-    </row>
-    <row r="4049" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4048" s="2" t="s">
+        <v>6693</v>
+      </c>
+    </row>
+    <row r="4049" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4049" t="s">
         <v>4556</v>
       </c>
-    </row>
-    <row r="4050" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4049" s="2" t="s">
+        <v>6694</v>
+      </c>
+    </row>
+    <row r="4050" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4050" t="s">
         <v>4557</v>
       </c>
-    </row>
-    <row r="4051" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4050" s="2" t="s">
+        <v>6695</v>
+      </c>
+    </row>
+    <row r="4051" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4051" t="s">
         <v>4558</v>
       </c>
-    </row>
-    <row r="4052" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4051" s="2" t="s">
+        <v>6696</v>
+      </c>
+    </row>
+    <row r="4052" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4052" t="s">
         <v>4559</v>
       </c>
-    </row>
-    <row r="4053" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4052" s="2" t="s">
+        <v>6697</v>
+      </c>
+    </row>
+    <row r="4053" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4053" t="s">
         <v>4560</v>
       </c>
-    </row>
-    <row r="4054" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4053" s="2" t="s">
+        <v>6698</v>
+      </c>
+    </row>
+    <row r="4054" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4054" t="s">
         <v>4561</v>
       </c>
-    </row>
-    <row r="4055" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4054" s="2" t="s">
+        <v>6699</v>
+      </c>
+    </row>
+    <row r="4055" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4055" t="s">
         <v>4562</v>
       </c>
-    </row>
-    <row r="4056" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4055" s="2" t="s">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="4056" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4056" t="s">
         <v>4563</v>
       </c>
-    </row>
-    <row r="4057" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4056" s="2" t="s">
+        <v>6979</v>
+      </c>
+    </row>
+    <row r="4057" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4057" t="s">
         <v>4564</v>
       </c>
-    </row>
-    <row r="4058" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4057" s="2" t="s">
+        <v>6980</v>
+      </c>
+    </row>
+    <row r="4058" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4058" t="s">
         <v>4565</v>
       </c>
-    </row>
-    <row r="4059" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4058" s="2" t="s">
+        <v>6701</v>
+      </c>
+    </row>
+    <row r="4059" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4059" t="s">
         <v>4566</v>
       </c>
-    </row>
-    <row r="4060" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4059" s="2" t="s">
+        <v>6702</v>
+      </c>
+    </row>
+    <row r="4060" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4060" t="s">
         <v>4567</v>
       </c>
-    </row>
-    <row r="4061" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4060" s="2" t="s">
+        <v>6981</v>
+      </c>
+    </row>
+    <row r="4061" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4061" t="s">
         <v>4568</v>
       </c>
-    </row>
-    <row r="4062" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4061" s="2" t="s">
+        <v>6703</v>
+      </c>
+    </row>
+    <row r="4062" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4062" t="s">
         <v>4569</v>
       </c>
-    </row>
-    <row r="4063" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4062" s="3" t="s">
+        <v>6982</v>
+      </c>
+    </row>
+    <row r="4063" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4063" t="s">
         <v>4570</v>
       </c>
-    </row>
-    <row r="4064" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4063" t="s">
+        <v>6881</v>
+      </c>
+    </row>
+    <row r="4064" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4064" t="s">
         <v>4571</v>
       </c>
-    </row>
-    <row r="4065" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4064" s="1" t="s">
+        <v>6737</v>
+      </c>
+    </row>
+    <row r="4065" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4065" t="s">
         <v>4572</v>
       </c>
-    </row>
-    <row r="4066" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4065" s="1" t="s">
+        <v>6738</v>
+      </c>
+    </row>
+    <row r="4066" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4066" t="s">
         <v>4573</v>
       </c>
-    </row>
-    <row r="4067" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4066" s="1" t="s">
+        <v>6739</v>
+      </c>
+    </row>
+    <row r="4067" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4067" t="s">
         <v>4574</v>
       </c>
-    </row>
-    <row r="4068" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4067" s="1" t="s">
+        <v>6740</v>
+      </c>
+    </row>
+    <row r="4068" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4068" t="s">
         <v>4575</v>
       </c>
-    </row>
-    <row r="4069" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4068" s="1" t="s">
+        <v>6983</v>
+      </c>
+    </row>
+    <row r="4069" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4069" t="s">
         <v>4576</v>
       </c>
-    </row>
-    <row r="4070" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4069" s="1" t="s">
+        <v>6741</v>
+      </c>
+    </row>
+    <row r="4070" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4070" t="s">
         <v>4577</v>
       </c>
-    </row>
-    <row r="4071" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4070" s="1" t="s">
+        <v>6742</v>
+      </c>
+    </row>
+    <row r="4071" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4071" t="s">
         <v>4578</v>
       </c>
-    </row>
-    <row r="4072" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4072" t="s">
+      <c r="C4071" s="1" t="s">
+        <v>6984</v>
+      </c>
+    </row>
+    <row r="4072" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4072" s="1" t="s">
         <v>4579</v>
       </c>
-    </row>
-    <row r="4073" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4073" t="s">
+      <c r="C4072" s="1" t="s">
+        <v>6743</v>
+      </c>
+    </row>
+    <row r="4073" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4073" s="1" t="s">
         <v>4580</v>
       </c>
-    </row>
-    <row r="4074" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4073" s="1" t="s">
+        <v>6744</v>
+      </c>
+    </row>
+    <row r="4074" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4074" t="s">
         <v>4581</v>
       </c>
-    </row>
-    <row r="4075" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4074" s="1" t="s">
+        <v>6745</v>
+      </c>
+    </row>
+    <row r="4075" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4075" t="s">
         <v>4582</v>
       </c>
-    </row>
-    <row r="4076" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4075" s="1" t="s">
+        <v>6746</v>
+      </c>
+    </row>
+    <row r="4076" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4076" t="s">
         <v>4583</v>
       </c>
-    </row>
-    <row r="4077" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4076" s="1" t="s">
+        <v>6747</v>
+      </c>
+    </row>
+    <row r="4077" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4077" t="s">
         <v>4584</v>
       </c>
-    </row>
-    <row r="4078" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4077" s="1" t="s">
+        <v>6748</v>
+      </c>
+    </row>
+    <row r="4078" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4078" t="s">
         <v>4585</v>
       </c>
-    </row>
-    <row r="4079" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4078" s="1" t="s">
+        <v>6749</v>
+      </c>
+    </row>
+    <row r="4079" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4079" t="s">
         <v>4586</v>
       </c>
-    </row>
-    <row r="4080" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4079" s="1" t="s">
+        <v>6750</v>
+      </c>
+    </row>
+    <row r="4080" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4080" t="s">
         <v>4587</v>
       </c>
-    </row>
-    <row r="4081" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4080" s="1" t="s">
+        <v>6751</v>
+      </c>
+    </row>
+    <row r="4081" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4081" t="s">
         <v>4588</v>
       </c>
-    </row>
-    <row r="4082" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4081" s="1" t="s">
+        <v>6752</v>
+      </c>
+    </row>
+    <row r="4082" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4082" t="s">
         <v>4589</v>
       </c>
-    </row>
-    <row r="4083" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4082" s="1" t="s">
+        <v>6753</v>
+      </c>
+    </row>
+    <row r="4083" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4083" t="s">
         <v>4590</v>
       </c>
-    </row>
-    <row r="4084" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4083" s="1" t="s">
+        <v>6754</v>
+      </c>
+    </row>
+    <row r="4084" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4084" t="s">
         <v>4591</v>
       </c>
-    </row>
-    <row r="4085" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4084" t="s">
+        <v>6755</v>
+      </c>
+    </row>
+    <row r="4085" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4085" t="s">
         <v>4592</v>
       </c>
-    </row>
-    <row r="4086" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4085" s="2" t="s">
+        <v>6721</v>
+      </c>
+    </row>
+    <row r="4086" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4086" t="s">
         <v>4593</v>
       </c>
-    </row>
-    <row r="4087" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4086" s="2" t="s">
+        <v>6722</v>
+      </c>
+    </row>
+    <row r="4087" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4087" t="s">
         <v>4594</v>
       </c>
-    </row>
-    <row r="4088" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4087" s="2" t="s">
+        <v>6723</v>
+      </c>
+    </row>
+    <row r="4088" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4088" t="s">
         <v>4595</v>
       </c>
-    </row>
-    <row r="4089" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4088" s="2" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="4089" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4089" t="s">
         <v>4596</v>
       </c>
-    </row>
-    <row r="4090" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4089" s="2" t="s">
+        <v>6725</v>
+      </c>
+    </row>
+    <row r="4090" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4090" t="s">
         <v>4597</v>
       </c>
-    </row>
-    <row r="4091" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4091" t="s">
+      <c r="C4090" s="2" t="s">
+        <v>6726</v>
+      </c>
+    </row>
+    <row r="4091" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4091" s="2" t="s">
         <v>4598</v>
       </c>
-    </row>
-    <row r="4092" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4091" s="2" t="s">
+        <v>6727</v>
+      </c>
+    </row>
+    <row r="4092" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4092" t="s">
         <v>4599</v>
       </c>
-    </row>
-    <row r="4093" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4092" s="2" t="s">
+        <v>6728</v>
+      </c>
+    </row>
+    <row r="4093" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4093" t="s">
         <v>4600</v>
       </c>
-    </row>
-    <row r="4094" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4093" s="2" t="s">
+        <v>6729</v>
+      </c>
+    </row>
+    <row r="4094" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4094" t="s">
         <v>4601</v>
       </c>
-    </row>
-    <row r="4095" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4094" s="2" t="s">
+        <v>6730</v>
+      </c>
+    </row>
+    <row r="4095" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4095" t="s">
         <v>4602</v>
       </c>
-    </row>
-    <row r="4096" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4095" s="2" t="s">
+        <v>6731</v>
+      </c>
+    </row>
+    <row r="4096" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4096" t="s">
         <v>4603</v>
       </c>
-    </row>
-    <row r="4097" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4096" s="2" t="s">
+        <v>6732</v>
+      </c>
+    </row>
+    <row r="4097" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4097" t="s">
         <v>4604</v>
       </c>
-    </row>
-    <row r="4098" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4097" s="2" t="s">
+        <v>6733</v>
+      </c>
+    </row>
+    <row r="4098" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4098" t="s">
         <v>4605</v>
       </c>
-    </row>
-    <row r="4099" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4098" s="2" t="s">
+        <v>6734</v>
+      </c>
+    </row>
+    <row r="4099" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4099" t="s">
         <v>4606</v>
       </c>
-    </row>
-    <row r="4100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4099" s="3" t="s">
+        <v>6735</v>
+      </c>
+    </row>
+    <row r="4100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4100" t="s">
         <v>4607</v>
       </c>
-    </row>
-    <row r="4101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4100" s="3" t="s">
+        <v>6736</v>
+      </c>
+    </row>
+    <row r="4101" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4101" t="s">
         <v>4608</v>
       </c>
-    </row>
-    <row r="4102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4101" s="1" t="s">
+        <v>6985</v>
+      </c>
+    </row>
+    <row r="4102" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4102" t="s">
         <v>4609</v>
       </c>
-    </row>
-    <row r="4103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4102" s="1" t="s">
+        <v>6864</v>
+      </c>
+    </row>
+    <row r="4103" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4103" t="s">
         <v>4610</v>
       </c>
-    </row>
-    <row r="4104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4103" s="1" t="s">
+        <v>6865</v>
+      </c>
+    </row>
+    <row r="4104" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4104" t="s">
         <v>4611</v>
       </c>
-    </row>
-    <row r="4105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4104" s="1" t="s">
+        <v>6866</v>
+      </c>
+    </row>
+    <row r="4105" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4105" t="s">
         <v>4612</v>
       </c>
-    </row>
-    <row r="4106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4105" s="1" t="s">
+        <v>6867</v>
+      </c>
+    </row>
+    <row r="4106" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4106" t="s">
         <v>4613</v>
       </c>
-    </row>
-    <row r="4107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4106" s="1" t="s">
+        <v>6868</v>
+      </c>
+    </row>
+    <row r="4107" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4107" t="s">
         <v>4614</v>
       </c>
-    </row>
-    <row r="4108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4107" s="1" t="s">
+        <v>6869</v>
+      </c>
+    </row>
+    <row r="4108" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4108" t="s">
         <v>4615</v>
       </c>
-    </row>
-    <row r="4109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4108" s="1" t="s">
+        <v>6870</v>
+      </c>
+    </row>
+    <row r="4109" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4109" t="s">
         <v>4616</v>
       </c>
-    </row>
-    <row r="4110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4109" s="1" t="s">
+        <v>6871</v>
+      </c>
+    </row>
+    <row r="4110" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4110" t="s">
         <v>4617</v>
       </c>
-    </row>
-    <row r="4111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4110" s="1" t="s">
+        <v>6872</v>
+      </c>
+    </row>
+    <row r="4111" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4111" t="s">
         <v>4618</v>
       </c>
-    </row>
-    <row r="4112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4111" s="1" t="s">
+        <v>6873</v>
+      </c>
+    </row>
+    <row r="4112" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4112" t="s">
         <v>4619</v>
       </c>
-    </row>
-    <row r="4113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4112" s="1" t="s">
+        <v>6874</v>
+      </c>
+    </row>
+    <row r="4113" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4113" t="s">
         <v>4620</v>
       </c>
-    </row>
-    <row r="4114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4113" s="1" t="s">
+        <v>6875</v>
+      </c>
+    </row>
+    <row r="4114" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4114" t="s">
         <v>4621</v>
       </c>
-    </row>
-    <row r="4115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4114" s="1" t="s">
+        <v>6986</v>
+      </c>
+    </row>
+    <row r="4115" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4115" t="s">
         <v>4622</v>
       </c>
-    </row>
-    <row r="4116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4115" s="1" t="s">
+        <v>6876</v>
+      </c>
+    </row>
+    <row r="4116" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4116" t="s">
         <v>4623</v>
       </c>
-    </row>
-    <row r="4117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4116" s="1" t="s">
+        <v>6877</v>
+      </c>
+    </row>
+    <row r="4117" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4117" t="s">
         <v>4624</v>
       </c>
-    </row>
-    <row r="4118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4117" s="1" t="s">
+        <v>6878</v>
+      </c>
+    </row>
+    <row r="4118" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4118" t="s">
         <v>4625</v>
       </c>
-    </row>
-    <row r="4119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4118" s="1" t="s">
+        <v>6879</v>
+      </c>
+    </row>
+    <row r="4119" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4119" t="s">
         <v>4626</v>
       </c>
-    </row>
-    <row r="4120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4120" t="s">
+      <c r="C4119" s="1" t="s">
+        <v>6880</v>
+      </c>
+    </row>
+    <row r="4120" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4120" s="1" t="s">
         <v>4627</v>
       </c>
-    </row>
-    <row r="4121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4120" s="1" t="s">
+        <v>6882</v>
+      </c>
+    </row>
+    <row r="4121" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4121" t="s">
         <v>4628</v>
       </c>
-    </row>
-    <row r="4122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4121" s="1" t="s">
+        <v>6883</v>
+      </c>
+    </row>
+    <row r="4122" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4122" t="s">
         <v>4629</v>
       </c>
-    </row>
-    <row r="4123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4122" s="1" t="s">
+        <v>6884</v>
+      </c>
+    </row>
+    <row r="4123" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4123" t="s">
         <v>4630</v>
       </c>
-    </row>
-    <row r="4124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4123" s="1" t="s">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="4124" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4124" t="s">
         <v>4631</v>
       </c>
-    </row>
-    <row r="4125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4124" s="1" t="s">
+        <v>6886</v>
+      </c>
+    </row>
+    <row r="4125" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4125" t="s">
         <v>4632</v>
       </c>
-    </row>
-    <row r="4126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4125" s="1" t="s">
+        <v>6887</v>
+      </c>
+    </row>
+    <row r="4126" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4126" t="s">
         <v>4633</v>
       </c>
-    </row>
-    <row r="4127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4126" s="1" t="s">
+        <v>6888</v>
+      </c>
+    </row>
+    <row r="4127" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4127" t="s">
         <v>4634</v>
       </c>
-    </row>
-    <row r="4128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4127" s="1" t="s">
+        <v>6889</v>
+      </c>
+    </row>
+    <row r="4128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4128" t="s">
         <v>4635</v>
       </c>
-    </row>
-    <row r="4129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4128" s="1" t="s">
+        <v>6890</v>
+      </c>
+    </row>
+    <row r="4129" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4129" t="s">
         <v>4636</v>
       </c>
-    </row>
-    <row r="4130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4129" s="1" t="s">
+        <v>6891</v>
+      </c>
+    </row>
+    <row r="4130" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4130" t="s">
         <v>4637</v>
       </c>
-    </row>
-    <row r="4131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4130" s="1" t="s">
+        <v>6892</v>
+      </c>
+    </row>
+    <row r="4131" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4131" t="s">
         <v>4638</v>
       </c>
-    </row>
-    <row r="4132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4131" s="1" t="s">
+        <v>6893</v>
+      </c>
+    </row>
+    <row r="4132" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4132" t="s">
         <v>4639</v>
       </c>
-    </row>
-    <row r="4133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4132" s="1" t="s">
+        <v>6894</v>
+      </c>
+    </row>
+    <row r="4133" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4133" t="s">
         <v>4640</v>
       </c>
-    </row>
-    <row r="4134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4133" s="1" t="s">
+        <v>6895</v>
+      </c>
+    </row>
+    <row r="4134" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4134" t="s">
         <v>4641</v>
       </c>
-    </row>
-    <row r="4135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4134" s="1" t="s">
+        <v>6896</v>
+      </c>
+    </row>
+    <row r="4135" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4135" t="s">
         <v>4642</v>
       </c>
-    </row>
-    <row r="4136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4135" s="1" t="s">
+        <v>6897</v>
+      </c>
+    </row>
+    <row r="4136" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4136" t="s">
         <v>4643</v>
       </c>
-    </row>
-    <row r="4137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4136" s="1" t="s">
+        <v>6898</v>
+      </c>
+    </row>
+    <row r="4137" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4137" t="s">
         <v>4644</v>
       </c>
-    </row>
-    <row r="4138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4137" s="1" t="s">
+        <v>6899</v>
+      </c>
+    </row>
+    <row r="4138" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4138" t="s">
         <v>4645</v>
       </c>
-    </row>
-    <row r="4139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4138" s="1" t="s">
+        <v>6918</v>
+      </c>
+    </row>
+    <row r="4139" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4139" t="s">
         <v>4646</v>
       </c>
-    </row>
-    <row r="4140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4139" s="1" t="s">
+        <v>6919</v>
+      </c>
+    </row>
+    <row r="4140" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4140" t="s">
         <v>4647</v>
       </c>
-    </row>
-    <row r="4141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4140" s="1" t="s">
+        <v>6920</v>
+      </c>
+    </row>
+    <row r="4141" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4141" t="s">
         <v>4648</v>
       </c>
-    </row>
-    <row r="4142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4141" s="1" t="s">
+        <v>6921</v>
+      </c>
+    </row>
+    <row r="4142" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4142" t="s">
         <v>4649</v>
       </c>
-    </row>
-    <row r="4143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4142" s="1" t="s">
+        <v>6922</v>
+      </c>
+    </row>
+    <row r="4143" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4143" t="s">
         <v>4650</v>
       </c>
-    </row>
-    <row r="4144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4143" s="1" t="s">
+        <v>6923</v>
+      </c>
+    </row>
+    <row r="4144" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4144" t="s">
         <v>4651</v>
       </c>
-    </row>
-    <row r="4145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4144" s="1" t="s">
+        <v>6924</v>
+      </c>
+    </row>
+    <row r="4145" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4145" t="s">
         <v>4652</v>
       </c>
-    </row>
-    <row r="4146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4145" s="1" t="s">
+        <v>6925</v>
+      </c>
+    </row>
+    <row r="4146" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4146" t="s">
         <v>4653</v>
       </c>
-    </row>
-    <row r="4147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4146" s="1" t="s">
+        <v>6926</v>
+      </c>
+    </row>
+    <row r="4147" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4147" t="s">
         <v>4654</v>
       </c>
-    </row>
-    <row r="4148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4147" s="1" t="s">
+        <v>6927</v>
+      </c>
+    </row>
+    <row r="4148" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4148" t="s">
         <v>4655</v>
       </c>
-    </row>
-    <row r="4149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4148" s="1" t="s">
+        <v>6928</v>
+      </c>
+    </row>
+    <row r="4149" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4149" t="s">
         <v>4656</v>
       </c>
-    </row>
-    <row r="4150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4149" s="1" t="s">
+        <v>6929</v>
+      </c>
+    </row>
+    <row r="4150" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4150" t="s">
         <v>4657</v>
       </c>
-    </row>
-    <row r="4151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4150" s="1" t="s">
+        <v>6930</v>
+      </c>
+    </row>
+    <row r="4151" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4151" t="s">
         <v>4658</v>
       </c>
-    </row>
-    <row r="4152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4151" s="1" t="s">
+        <v>6931</v>
+      </c>
+    </row>
+    <row r="4152" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4152" t="s">
         <v>4659</v>
       </c>
-    </row>
-    <row r="4153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4152" s="1" t="s">
+        <v>6932</v>
+      </c>
+    </row>
+    <row r="4153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4153" t="s">
         <v>4660</v>
       </c>
-    </row>
-    <row r="4154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4153" t="s">
+        <v>6933</v>
+      </c>
+    </row>
+    <row r="4154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4154" t="s">
         <v>4661</v>
       </c>
-    </row>
-    <row r="4155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4154" t="s">
+        <v>6934</v>
+      </c>
+    </row>
+    <row r="4155" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4155" t="s">
         <v>4662</v>
       </c>
-    </row>
-    <row r="4156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4155" s="1" t="s">
+        <v>6935</v>
+      </c>
+    </row>
+    <row r="4156" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4156" t="s">
         <v>4663</v>
       </c>
-    </row>
-    <row r="4157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4157" t="s">
+      <c r="C4156" s="1" t="s">
+        <v>6936</v>
+      </c>
+    </row>
+    <row r="4157" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4157" s="1" t="s">
         <v>4664</v>
       </c>
-    </row>
-    <row r="4158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4157" s="1" t="s">
+        <v>6778</v>
+      </c>
+    </row>
+    <row r="4158" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4158" t="s">
         <v>4665</v>
       </c>
-    </row>
-    <row r="4159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4158" s="1" t="s">
+        <v>6779</v>
+      </c>
+    </row>
+    <row r="4159" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4159" t="s">
         <v>4666</v>
       </c>
-    </row>
-    <row r="4160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4160" t="s">
+      <c r="C4159" s="1" t="s">
+        <v>6780</v>
+      </c>
+    </row>
+    <row r="4160" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4160" s="1" t="s">
         <v>4667</v>
       </c>
-    </row>
-    <row r="4161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4160" s="1" t="s">
+        <v>6781</v>
+      </c>
+    </row>
+    <row r="4161" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4161" t="s">
         <v>4668</v>
       </c>
-    </row>
-    <row r="4162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4161" s="1" t="s">
+        <v>6782</v>
+      </c>
+    </row>
+    <row r="4162" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4162" t="s">
         <v>4669</v>
       </c>
-    </row>
-    <row r="4163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4162" s="1" t="s">
+        <v>6783</v>
+      </c>
+    </row>
+    <row r="4163" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4163" t="s">
         <v>4670</v>
       </c>
-    </row>
-    <row r="4164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4163" s="1" t="s">
+        <v>6784</v>
+      </c>
+    </row>
+    <row r="4164" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4164" t="s">
         <v>4671</v>
       </c>
-    </row>
-    <row r="4165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4164" s="1" t="s">
+        <v>6785</v>
+      </c>
+    </row>
+    <row r="4165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4165" t="s">
         <v>4672</v>
       </c>
-    </row>
-    <row r="4166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4165" t="s">
+        <v>6786</v>
+      </c>
+    </row>
+    <row r="4166" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4166" t="s">
         <v>4673</v>
       </c>
-    </row>
-    <row r="4167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4166" s="1" t="s">
+        <v>6787</v>
+      </c>
+    </row>
+    <row r="4167" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4167" t="s">
         <v>4674</v>
       </c>
-    </row>
-    <row r="4168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4167" s="1" t="s">
+        <v>6788</v>
+      </c>
+    </row>
+    <row r="4168" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4168" t="s">
         <v>4675</v>
       </c>
-    </row>
-    <row r="4169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4168" s="1" t="s">
+        <v>6789</v>
+      </c>
+    </row>
+    <row r="4169" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4169" t="s">
         <v>4676</v>
       </c>
-    </row>
-    <row r="4170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4169" s="1" t="s">
+        <v>6790</v>
+      </c>
+    </row>
+    <row r="4170" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4170" t="s">
         <v>4677</v>
       </c>
-    </row>
-    <row r="4171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4170" s="1" t="s">
+        <v>6791</v>
+      </c>
+    </row>
+    <row r="4171" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4171" t="s">
         <v>4678</v>
       </c>
-    </row>
-    <row r="4172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4171" s="1" t="s">
+        <v>6792</v>
+      </c>
+    </row>
+    <row r="4172" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4172" t="s">
         <v>4679</v>
       </c>
-    </row>
-    <row r="4173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4172" s="1" t="s">
+        <v>6793</v>
+      </c>
+    </row>
+    <row r="4173" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4173" t="s">
         <v>4680</v>
       </c>
-    </row>
-    <row r="4174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4173" s="1" t="s">
+        <v>6794</v>
+      </c>
+    </row>
+    <row r="4174" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4174" t="s">
         <v>4681</v>
       </c>
-    </row>
-    <row r="4175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4174" s="1" t="s">
+        <v>6795</v>
+      </c>
+    </row>
+    <row r="4175" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4175" t="s">
         <v>4682</v>
       </c>
-    </row>
-    <row r="4176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4175" s="1" t="s">
+        <v>6796</v>
+      </c>
+    </row>
+    <row r="4176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4176" t="s">
         <v>4683</v>
       </c>
-    </row>
-    <row r="4177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4176" t="s">
+        <v>6797</v>
+      </c>
+    </row>
+    <row r="4177" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4177" t="s">
         <v>4684</v>
       </c>
-    </row>
-    <row r="4178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4177" s="1" t="s">
+        <v>6798</v>
+      </c>
+    </row>
+    <row r="4178" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4178" t="s">
         <v>4685</v>
       </c>
-    </row>
-    <row r="4179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4178" s="1" t="s">
+        <v>6799</v>
+      </c>
+    </row>
+    <row r="4179" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4179" t="s">
         <v>4686</v>
       </c>
-    </row>
-    <row r="4180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4179" s="1" t="s">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="4180" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4180" t="s">
         <v>4687</v>
       </c>
-    </row>
-    <row r="4181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4180" s="1" t="s">
+        <v>6801</v>
+      </c>
+    </row>
+    <row r="4181" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4181" t="s">
         <v>4688</v>
       </c>
-    </row>
-    <row r="4182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4181" s="1" t="s">
+        <v>6802</v>
+      </c>
+    </row>
+    <row r="4182" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4182" t="s">
         <v>4689</v>
       </c>
-    </row>
-    <row r="4183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4182" s="1" t="s">
+        <v>6803</v>
+      </c>
+    </row>
+    <row r="4183" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4183" t="s">
         <v>4690</v>
       </c>
-    </row>
-    <row r="4184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4183" s="1" t="s">
+        <v>6804</v>
+      </c>
+    </row>
+    <row r="4184" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4184" t="s">
         <v>4691</v>
       </c>
-    </row>
-    <row r="4185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4184" s="1" t="s">
+        <v>6805</v>
+      </c>
+    </row>
+    <row r="4185" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4185" t="s">
         <v>4692</v>
       </c>
-    </row>
-    <row r="4186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4185" s="1" t="s">
+        <v>6806</v>
+      </c>
+    </row>
+    <row r="4186" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4186" t="s">
         <v>4693</v>
       </c>
-    </row>
-    <row r="4187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4186" s="1" t="s">
+        <v>6807</v>
+      </c>
+    </row>
+    <row r="4187" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4187" t="s">
         <v>4694</v>
       </c>
-    </row>
-    <row r="4188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4187" s="1" t="s">
+        <v>6808</v>
+      </c>
+    </row>
+    <row r="4188" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4188" t="s">
         <v>4695</v>
       </c>
-    </row>
-    <row r="4189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4188" s="1" t="s">
+        <v>6809</v>
+      </c>
+    </row>
+    <row r="4189" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4189" t="s">
         <v>4696</v>
       </c>
-    </row>
-    <row r="4190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4189" s="1" t="s">
+        <v>6810</v>
+      </c>
+    </row>
+    <row r="4190" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4190" t="s">
         <v>4697</v>
       </c>
-    </row>
-    <row r="4191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4190" s="1" t="s">
+        <v>6811</v>
+      </c>
+    </row>
+    <row r="4191" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4191" t="s">
         <v>4698</v>
       </c>
-    </row>
-    <row r="4192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4191" s="1" t="s">
+        <v>6812</v>
+      </c>
+    </row>
+    <row r="4192" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4192" t="s">
         <v>4699</v>
       </c>
-    </row>
-    <row r="4193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4192" s="1" t="s">
+        <v>6813</v>
+      </c>
+    </row>
+    <row r="4193" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4193" t="s">
         <v>4700</v>
       </c>
-    </row>
-    <row r="4194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4193" s="1" t="s">
+        <v>6814</v>
+      </c>
+    </row>
+    <row r="4194" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4194" t="s">
         <v>4701</v>
       </c>
-    </row>
-    <row r="4195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4194" s="1" t="s">
+        <v>6815</v>
+      </c>
+    </row>
+    <row r="4195" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4195" t="s">
         <v>4702</v>
       </c>
-    </row>
-    <row r="4196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4195" s="1" t="s">
+        <v>6816</v>
+      </c>
+    </row>
+    <row r="4196" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4196" t="s">
         <v>4703</v>
       </c>
-    </row>
-    <row r="4197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4196" s="1" t="s">
+        <v>6817</v>
+      </c>
+    </row>
+    <row r="4197" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4197" t="s">
         <v>4704</v>
       </c>
-    </row>
-    <row r="4198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4197" s="1" t="s">
+        <v>6818</v>
+      </c>
+    </row>
+    <row r="4198" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4198" t="s">
         <v>4705</v>
       </c>
-    </row>
-    <row r="4199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4198" s="1" t="s">
+        <v>6819</v>
+      </c>
+    </row>
+    <row r="4199" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4199" t="s">
         <v>4706</v>
       </c>
-    </row>
-    <row r="4200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4199" s="1" t="s">
+        <v>6820</v>
+      </c>
+    </row>
+    <row r="4200" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4200" t="s">
         <v>4707</v>
       </c>
-    </row>
-    <row r="4201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4200" s="1" t="s">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="4201" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4201" t="s">
         <v>4708</v>
       </c>
-    </row>
-    <row r="4202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4201" s="1" t="s">
+        <v>6901</v>
+      </c>
+    </row>
+    <row r="4202" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4202" t="s">
         <v>4709</v>
       </c>
-    </row>
-    <row r="4203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4202" s="1" t="s">
+        <v>6902</v>
+      </c>
+    </row>
+    <row r="4203" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4203" t="s">
         <v>4710</v>
       </c>
-    </row>
-    <row r="4204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4203" s="1" t="s">
+        <v>6903</v>
+      </c>
+    </row>
+    <row r="4204" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4204" t="s">
         <v>4711</v>
       </c>
-    </row>
-    <row r="4205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4204" s="1" t="s">
+        <v>6904</v>
+      </c>
+    </row>
+    <row r="4205" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4205" t="s">
         <v>4712</v>
       </c>
-    </row>
-    <row r="4206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4205" s="1" t="s">
+        <v>6905</v>
+      </c>
+    </row>
+    <row r="4206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4206" t="s">
         <v>4713</v>
       </c>
-    </row>
-    <row r="4207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4206" t="s">
+        <v>6906</v>
+      </c>
+    </row>
+    <row r="4207" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4207" t="s">
         <v>4714</v>
       </c>
-    </row>
-    <row r="4208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4207" s="1" t="s">
+        <v>6907</v>
+      </c>
+    </row>
+    <row r="4208" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4208" t="s">
         <v>4715</v>
       </c>
-    </row>
-    <row r="4209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4208" s="1" t="s">
+        <v>6908</v>
+      </c>
+    </row>
+    <row r="4209" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4209" t="s">
         <v>4716</v>
       </c>
-    </row>
-    <row r="4210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4209" s="1" t="s">
+        <v>6909</v>
+      </c>
+    </row>
+    <row r="4210" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4210" t="s">
         <v>4717</v>
       </c>
-    </row>
-    <row r="4211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4210" s="1" t="s">
+        <v>6910</v>
+      </c>
+    </row>
+    <row r="4211" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4211" t="s">
         <v>4718</v>
       </c>
-    </row>
-    <row r="4212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4211" s="1" t="s">
+        <v>6911</v>
+      </c>
+    </row>
+    <row r="4212" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4212" t="s">
         <v>4719</v>
       </c>
-    </row>
-    <row r="4213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4212" s="1" t="s">
+        <v>6912</v>
+      </c>
+    </row>
+    <row r="4213" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4213" t="s">
         <v>4720</v>
       </c>
-    </row>
-    <row r="4214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4213" s="1" t="s">
+        <v>6913</v>
+      </c>
+    </row>
+    <row r="4214" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4214" t="s">
         <v>4721</v>
       </c>
-    </row>
-    <row r="4215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4214" s="1" t="s">
+        <v>6914</v>
+      </c>
+    </row>
+    <row r="4215" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4215" t="s">
         <v>4722</v>
       </c>
-    </row>
-    <row r="4216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4215" s="1" t="s">
+        <v>6915</v>
+      </c>
+    </row>
+    <row r="4216" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4216" t="s">
         <v>4723</v>
       </c>
-    </row>
-    <row r="4217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4216" s="1" t="s">
+        <v>6916</v>
+      </c>
+    </row>
+    <row r="4217" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4217" t="s">
         <v>4724</v>
       </c>
-    </row>
-    <row r="4218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4217" s="1" t="s">
+        <v>6917</v>
+      </c>
+    </row>
+    <row r="4218" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4218" t="s">
         <v>4725</v>
       </c>
-    </row>
-    <row r="4219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4218" s="1" t="s">
+        <v>6828</v>
+      </c>
+    </row>
+    <row r="4219" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4219" t="s">
         <v>4726</v>
       </c>
-    </row>
-    <row r="4220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4219" s="1" t="s">
+        <v>6829</v>
+      </c>
+    </row>
+    <row r="4220" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4220" t="s">
         <v>4727</v>
       </c>
-    </row>
-    <row r="4221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4220" s="1" t="s">
+        <v>6830</v>
+      </c>
+    </row>
+    <row r="4221" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4221" t="s">
         <v>4728</v>
       </c>
-    </row>
-    <row r="4222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4221" s="1" t="s">
+        <v>6831</v>
+      </c>
+    </row>
+    <row r="4222" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4222" t="s">
         <v>4729</v>
       </c>
-    </row>
-    <row r="4223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4222" s="1" t="s">
+        <v>6832</v>
+      </c>
+    </row>
+    <row r="4223" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4223" t="s">
         <v>4730</v>
       </c>
-    </row>
-    <row r="4224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4223" s="1" t="s">
+        <v>6833</v>
+      </c>
+    </row>
+    <row r="4224" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4224" t="s">
         <v>4731</v>
       </c>
-    </row>
-    <row r="4225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4224" s="1" t="s">
+        <v>6834</v>
+      </c>
+    </row>
+    <row r="4225" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4225" t="s">
         <v>4732</v>
       </c>
-    </row>
-    <row r="4226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4225" s="1" t="s">
+        <v>6835</v>
+      </c>
+    </row>
+    <row r="4226" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4226" t="s">
         <v>4733</v>
       </c>
-    </row>
-    <row r="4227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4226" s="1" t="s">
+        <v>6836</v>
+      </c>
+    </row>
+    <row r="4227" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4227" t="s">
         <v>4734</v>
       </c>
-    </row>
-    <row r="4228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4227" s="1" t="s">
+        <v>6837</v>
+      </c>
+    </row>
+    <row r="4228" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4228" t="s">
         <v>4735</v>
       </c>
-    </row>
-    <row r="4229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4228" s="1" t="s">
+        <v>6838</v>
+      </c>
+    </row>
+    <row r="4229" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4229" t="s">
         <v>4736</v>
       </c>
-    </row>
-    <row r="4230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4229" s="1" t="s">
+        <v>6839</v>
+      </c>
+    </row>
+    <row r="4230" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4230" t="s">
         <v>4737</v>
       </c>
-    </row>
-    <row r="4231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4230" s="1" t="s">
+        <v>6840</v>
+      </c>
+    </row>
+    <row r="4231" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4231" t="s">
         <v>4738</v>
       </c>
-    </row>
-    <row r="4232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4231" s="1" t="s">
+        <v>6842</v>
+      </c>
+    </row>
+    <row r="4232" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4232" t="s">
         <v>4739</v>
       </c>
-    </row>
-    <row r="4233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4232" s="1" t="s">
+        <v>6841</v>
+      </c>
+    </row>
+    <row r="4233" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4233" t="s">
         <v>4740</v>
       </c>
-    </row>
-    <row r="4234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4233" s="1" t="s">
+        <v>6843</v>
+      </c>
+    </row>
+    <row r="4234" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4234" t="s">
         <v>4741</v>
       </c>
-    </row>
-    <row r="4235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4235" t="s">
+      <c r="C4234" s="1" t="s">
+        <v>6844</v>
+      </c>
+    </row>
+    <row r="4235" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4235" s="1" t="s">
         <v>4742</v>
       </c>
-    </row>
-    <row r="4236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4236" t="s">
+      <c r="C4235" s="1" t="s">
+        <v>6845</v>
+      </c>
+    </row>
+    <row r="4236" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4236" s="1" t="s">
         <v>4743</v>
       </c>
-    </row>
-    <row r="4237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4236" s="1" t="s">
+        <v>6846</v>
+      </c>
+    </row>
+    <row r="4237" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4237" t="s">
         <v>4744</v>
       </c>
-    </row>
-    <row r="4238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4237" s="1" t="s">
+        <v>6847</v>
+      </c>
+    </row>
+    <row r="4238" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4238" t="s">
         <v>4745</v>
       </c>
-    </row>
-    <row r="4239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4238" s="1" t="s">
+        <v>6848</v>
+      </c>
+    </row>
+    <row r="4239" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4239" t="s">
         <v>4746</v>
       </c>
-    </row>
-    <row r="4240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4239" s="1" t="s">
+        <v>6849</v>
+      </c>
+    </row>
+    <row r="4240" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4240" t="s">
         <v>4747</v>
       </c>
-    </row>
-    <row r="4241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4240" s="1" t="s">
+        <v>6850</v>
+      </c>
+    </row>
+    <row r="4241" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4241" t="s">
         <v>4748</v>
       </c>
-    </row>
-    <row r="4242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4241" s="1" t="s">
+        <v>6851</v>
+      </c>
+    </row>
+    <row r="4242" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4242" t="s">
         <v>4749</v>
       </c>
-    </row>
-    <row r="4243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4242" s="1" t="s">
+        <v>6852</v>
+      </c>
+    </row>
+    <row r="4243" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4243" t="s">
         <v>4750</v>
       </c>
-    </row>
-    <row r="4244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4243" s="1" t="s">
+        <v>6853</v>
+      </c>
+    </row>
+    <row r="4244" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4244" t="s">
         <v>4751</v>
       </c>
-    </row>
-    <row r="4245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4244" s="1" t="s">
+        <v>6854</v>
+      </c>
+    </row>
+    <row r="4245" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4245" t="s">
         <v>4752</v>
       </c>
-    </row>
-    <row r="4246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4245" s="1" t="s">
+        <v>6855</v>
+      </c>
+    </row>
+    <row r="4246" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4246" t="s">
         <v>4753</v>
       </c>
-    </row>
-    <row r="4247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4246" s="1" t="s">
+        <v>6856</v>
+      </c>
+    </row>
+    <row r="4247" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4247" t="s">
         <v>4754</v>
       </c>
-    </row>
-    <row r="4248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4247" s="1" t="s">
+        <v>6859</v>
+      </c>
+    </row>
+    <row r="4248" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4248" t="s">
         <v>4755</v>
       </c>
-    </row>
-    <row r="4249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4248" s="1" t="s">
+        <v>6857</v>
+      </c>
+    </row>
+    <row r="4249" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4249" t="s">
         <v>4756</v>
       </c>
-    </row>
-    <row r="4250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4249" s="1" t="s">
+        <v>6858</v>
+      </c>
+    </row>
+    <row r="4250" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4250" t="s">
         <v>4757</v>
       </c>
-    </row>
-    <row r="4251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4250" s="1" t="s">
+        <v>6860</v>
+      </c>
+    </row>
+    <row r="4251" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4251" t="s">
         <v>4758</v>
       </c>
-    </row>
-    <row r="4252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4251" s="1" t="s">
+        <v>6861</v>
+      </c>
+    </row>
+    <row r="4252" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4252" t="s">
         <v>4759</v>
       </c>
-    </row>
-    <row r="4253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4252" s="1" t="s">
+        <v>6862</v>
+      </c>
+    </row>
+    <row r="4253" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4253" t="s">
         <v>4760</v>
       </c>
-    </row>
-    <row r="4254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4254" t="s">
+      <c r="C4253" s="1" t="s">
+        <v>6863</v>
+      </c>
+    </row>
+    <row r="4254" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4254" s="1" t="s">
         <v>4761</v>
       </c>
-    </row>
-    <row r="4255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4254" s="1" t="s">
+        <v>6757</v>
+      </c>
+    </row>
+    <row r="4255" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4255" t="s">
         <v>4762</v>
       </c>
-    </row>
-    <row r="4256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4255" s="1" t="s">
+        <v>6768</v>
+      </c>
+    </row>
+    <row r="4256" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4256" t="s">
         <v>4763</v>
       </c>
-    </row>
-    <row r="4257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4256" s="1" t="s">
+        <v>6769</v>
+      </c>
+    </row>
+    <row r="4257" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4257" t="s">
         <v>4764</v>
       </c>
-    </row>
-    <row r="4258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4257" s="1" t="s">
+        <v>6758</v>
+      </c>
+    </row>
+    <row r="4258" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4258" t="s">
         <v>4765</v>
       </c>
-    </row>
-    <row r="4259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4258" s="1" t="s">
+        <v>6770</v>
+      </c>
+    </row>
+    <row r="4259" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4259" t="s">
         <v>4766</v>
       </c>
-    </row>
-    <row r="4260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4259" s="1" t="s">
+        <v>6759</v>
+      </c>
+    </row>
+    <row r="4260" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4260" t="s">
         <v>4767</v>
       </c>
-    </row>
-    <row r="4261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4260" s="1" t="s">
+        <v>6771</v>
+      </c>
+    </row>
+    <row r="4261" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4261" t="s">
         <v>4768</v>
       </c>
-    </row>
-    <row r="4262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4261" s="1" t="s">
+        <v>6760</v>
+      </c>
+    </row>
+    <row r="4262" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4262" t="s">
         <v>4769</v>
       </c>
-    </row>
-    <row r="4263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4262" s="1" t="s">
+        <v>6772</v>
+      </c>
+    </row>
+    <row r="4263" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4263" t="s">
         <v>4770</v>
       </c>
-    </row>
-    <row r="4264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4263" s="1" t="s">
+        <v>6761</v>
+      </c>
+    </row>
+    <row r="4264" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4264" t="s">
         <v>4771</v>
       </c>
-    </row>
-    <row r="4265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4264" s="1" t="s">
+        <v>6773</v>
+      </c>
+    </row>
+    <row r="4265" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4265" t="s">
         <v>4772</v>
       </c>
-    </row>
-    <row r="4266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4265" s="1" t="s">
+        <v>6762</v>
+      </c>
+    </row>
+    <row r="4266" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4266" t="s">
         <v>4773</v>
       </c>
-    </row>
-    <row r="4267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4266" s="1" t="s">
+        <v>6763</v>
+      </c>
+    </row>
+    <row r="4267" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4267" t="s">
         <v>4774</v>
       </c>
-    </row>
-    <row r="4268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4267" s="1" t="s">
+        <v>6774</v>
+      </c>
+    </row>
+    <row r="4268" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4268" t="s">
         <v>4775</v>
       </c>
-    </row>
-    <row r="4269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4268" s="1" t="s">
+        <v>6764</v>
+      </c>
+    </row>
+    <row r="4269" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4269" t="s">
         <v>4776</v>
       </c>
-    </row>
-    <row r="4270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4269" s="1" t="s">
+        <v>6775</v>
+      </c>
+    </row>
+    <row r="4270" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4270" t="s">
         <v>4777</v>
       </c>
-    </row>
-    <row r="4271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4270" s="1" t="s">
+        <v>6765</v>
+      </c>
+    </row>
+    <row r="4271" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4271" t="s">
         <v>4778</v>
       </c>
-    </row>
-    <row r="4272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4271" s="1" t="s">
+        <v>6776</v>
+      </c>
+    </row>
+    <row r="4272" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4272" t="s">
         <v>4779</v>
       </c>
-    </row>
-    <row r="4273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4272" s="1" t="s">
+        <v>6766</v>
+      </c>
+    </row>
+    <row r="4273" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4273" t="s">
         <v>4780</v>
       </c>
-    </row>
-    <row r="4274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4273" s="1" t="s">
+        <v>6767</v>
+      </c>
+    </row>
+    <row r="4274" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4274" t="s">
         <v>4781</v>
       </c>
-    </row>
-    <row r="4275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4274" s="1" t="s">
+        <v>6777</v>
+      </c>
+    </row>
+    <row r="4275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4275" t="s">
         <v>4782</v>
       </c>
-    </row>
-    <row r="4276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4275" t="s">
+        <v>6756</v>
+      </c>
+    </row>
+    <row r="4276" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4276" t="s">
         <v>4783</v>
       </c>
-    </row>
-    <row r="4277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4276" s="1" t="s">
+        <v>6937</v>
+      </c>
+    </row>
+    <row r="4277" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4277" t="s">
         <v>4784</v>
       </c>
-    </row>
-    <row r="4278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4277" s="1" t="s">
+        <v>6938</v>
+      </c>
+    </row>
+    <row r="4278" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4278" t="s">
         <v>4785</v>
       </c>
-    </row>
-    <row r="4279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4278" s="1" t="s">
+        <v>6939</v>
+      </c>
+    </row>
+    <row r="4279" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4279" t="s">
         <v>4786</v>
       </c>
-    </row>
-    <row r="4280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4279" s="1" t="s">
+        <v>6940</v>
+      </c>
+    </row>
+    <row r="4280" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4280" t="s">
         <v>4787</v>
       </c>
-    </row>
-    <row r="4281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4280" s="1" t="s">
+        <v>6941</v>
+      </c>
+    </row>
+    <row r="4281" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4281" t="s">
         <v>4788</v>
       </c>
-    </row>
-    <row r="4282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4281" s="1" t="s">
+        <v>6942</v>
+      </c>
+    </row>
+    <row r="4282" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4282" t="s">
         <v>4789</v>
       </c>
-    </row>
-    <row r="4283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4282" s="1" t="s">
+        <v>6943</v>
+      </c>
+    </row>
+    <row r="4283" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4283" t="s">
         <v>4790</v>
       </c>
-    </row>
-    <row r="4284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4283" s="1" t="s">
+        <v>6944</v>
+      </c>
+    </row>
+    <row r="4284" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4284" t="s">
         <v>4791</v>
       </c>
-    </row>
-    <row r="4285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4284" s="1" t="s">
+        <v>6945</v>
+      </c>
+    </row>
+    <row r="4285" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4285" t="s">
         <v>4792</v>
       </c>
-    </row>
-    <row r="4286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4285" s="1" t="s">
+        <v>6946</v>
+      </c>
+    </row>
+    <row r="4286" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4286" t="s">
         <v>4793</v>
       </c>
-    </row>
-    <row r="4287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4286" s="1" t="s">
+        <v>6947</v>
+      </c>
+    </row>
+    <row r="4287" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4287" t="s">
         <v>4794</v>
       </c>
-    </row>
-    <row r="4288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4287" s="1" t="s">
+        <v>6948</v>
+      </c>
+    </row>
+    <row r="4288" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4288" t="s">
         <v>4795</v>
       </c>
-    </row>
-    <row r="4289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4288" s="1" t="s">
+        <v>6949</v>
+      </c>
+    </row>
+    <row r="4289" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4289" t="s">
         <v>4796</v>
       </c>
-    </row>
-    <row r="4290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4289" s="1" t="s">
+        <v>6950</v>
+      </c>
+    </row>
+    <row r="4290" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4290" t="s">
         <v>4797</v>
       </c>
-    </row>
-    <row r="4291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4290" s="1" t="s">
+        <v>6951</v>
+      </c>
+    </row>
+    <row r="4291" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4291" t="s">
         <v>4798</v>
       </c>
-    </row>
-    <row r="4292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4291" s="1" t="s">
+        <v>6952</v>
+      </c>
+    </row>
+    <row r="4292" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4292" t="s">
         <v>4799</v>
       </c>
-    </row>
-    <row r="4293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4292" s="1" t="s">
+        <v>6953</v>
+      </c>
+    </row>
+    <row r="4293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4293" t="s">
         <v>4800</v>
       </c>
-    </row>
-    <row r="4294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4294" t="s">
+      <c r="C4293" t="s">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="4294" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4294" s="1" t="s">
         <v>4801</v>
       </c>
-    </row>
-    <row r="4295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4294" s="1" t="s">
+        <v>6954</v>
+      </c>
+    </row>
+    <row r="4295" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4295" t="s">
         <v>4802</v>
       </c>
-    </row>
-    <row r="4296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4295" s="1" t="s">
+        <v>6955</v>
+      </c>
+    </row>
+    <row r="4296" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4296" t="s">
         <v>4803</v>
       </c>
-    </row>
-    <row r="4297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4296" s="1" t="s">
+        <v>6956</v>
+      </c>
+    </row>
+    <row r="4297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4297" t="s">
         <v>4804</v>
       </c>
-    </row>
-    <row r="4298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4297" t="s">
+        <v>6957</v>
+      </c>
+    </row>
+    <row r="4298" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4298" t="s">
         <v>4805</v>
       </c>
       <c r="B4298" t="s">
         <v>4805</v>
       </c>
-    </row>
-    <row r="4299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4298" s="1" t="s">
+        <v>6958</v>
+      </c>
+    </row>
+    <row r="4299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4299" t="s">
         <v>4806</v>
       </c>
       <c r="B4299" t="s">
         <v>4806</v>
       </c>
-    </row>
-    <row r="4300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4299" t="s">
+        <v>6959</v>
+      </c>
+    </row>
+    <row r="4300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4300" t="s">
         <v>4807</v>
       </c>
     </row>
-    <row r="4301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4301" t="s">
         <v>4808</v>
       </c>
     </row>
-    <row r="4302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4302" t="s">
         <v>4809</v>
       </c>
     </row>
-    <row r="4303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4303" t="s">
         <v>4810</v>
       </c>
     </row>
-    <row r="4304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4304" t="s">
         <v>4811</v>
       </c>
@@ -62538,7 +66049,7 @@
         <v>5262</v>
       </c>
     </row>
-    <row r="4753" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4753" t="s">
         <v>5263</v>
       </c>
@@ -62546,7 +66057,7 @@
         <v>5263</v>
       </c>
     </row>
-    <row r="4754" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4754" t="s">
         <v>5264</v>
       </c>
@@ -62554,7 +66065,7 @@
         <v>5264</v>
       </c>
     </row>
-    <row r="4755" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4755" t="s">
         <v>5265</v>
       </c>
@@ -62562,7 +66073,7 @@
         <v>5265</v>
       </c>
     </row>
-    <row r="4756" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4756" t="s">
         <v>5266</v>
       </c>
@@ -62570,7 +66081,7 @@
         <v>5266</v>
       </c>
     </row>
-    <row r="4757" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4757" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4757" t="s">
         <v>5267</v>
       </c>
@@ -62578,7 +66089,7 @@
         <v>5267</v>
       </c>
     </row>
-    <row r="4758" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4758" t="s">
         <v>5268</v>
       </c>
@@ -62586,7 +66097,7 @@
         <v>5268</v>
       </c>
     </row>
-    <row r="4759" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4759" t="s">
         <v>5269</v>
       </c>
@@ -62594,7 +66105,7 @@
         <v>5269</v>
       </c>
     </row>
-    <row r="4760" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4760" t="s">
         <v>5270</v>
       </c>
@@ -62602,7 +66113,7 @@
         <v>5270</v>
       </c>
     </row>
-    <row r="4761" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4761" t="s">
         <v>5271</v>
       </c>
@@ -62610,7 +66121,7 @@
         <v>5271</v>
       </c>
     </row>
-    <row r="4762" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4762" t="s">
         <v>5272</v>
       </c>
@@ -62618,7 +66129,7 @@
         <v>5272</v>
       </c>
     </row>
-    <row r="4763" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4763" t="s">
         <v>5273</v>
       </c>
@@ -62626,7 +66137,7 @@
         <v>5273</v>
       </c>
     </row>
-    <row r="4764" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4764" t="s">
         <v>5274</v>
       </c>
@@ -62634,7 +66145,7 @@
         <v>5274</v>
       </c>
     </row>
-    <row r="4765" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4765" t="s">
         <v>5275</v>
       </c>
@@ -62642,7 +66153,7 @@
         <v>5275</v>
       </c>
     </row>
-    <row r="4766" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4766" t="s">
         <v>5276</v>
       </c>
@@ -62650,7 +66161,7 @@
         <v>5276</v>
       </c>
     </row>
-    <row r="4767" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4767" t="s">
         <v>5277</v>
       </c>
@@ -62658,329 +66169,524 @@
         <v>5277</v>
       </c>
     </row>
-    <row r="4768" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4768" t="s">
+    <row r="4768" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4768" s="2" t="s">
         <v>5278</v>
       </c>
-    </row>
-    <row r="4769" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4769" t="s">
+      <c r="C4768" s="2" t="s">
+        <v>6589</v>
+      </c>
+    </row>
+    <row r="4769" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4769" s="2" t="s">
         <v>5279</v>
       </c>
-    </row>
-    <row r="4770" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4770" t="s">
+      <c r="C4769" s="2" t="s">
+        <v>6608</v>
+      </c>
+    </row>
+    <row r="4770" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4770" s="2" t="s">
         <v>5280</v>
       </c>
-    </row>
-    <row r="4771" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4771" t="s">
+      <c r="C4770" s="2" t="s">
+        <v>6590</v>
+      </c>
+    </row>
+    <row r="4771" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4771" s="2" t="s">
         <v>5281</v>
       </c>
-    </row>
-    <row r="4772" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4771" s="2" t="s">
+        <v>6609</v>
+      </c>
+    </row>
+    <row r="4772" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4772" t="s">
         <v>5282</v>
       </c>
-    </row>
-    <row r="4773" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4772" s="2" t="s">
+        <v>6591</v>
+      </c>
+    </row>
+    <row r="4773" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4773" t="s">
         <v>5283</v>
       </c>
-    </row>
-    <row r="4774" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4773" s="2" t="s">
+        <v>6610</v>
+      </c>
+    </row>
+    <row r="4774" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4774" t="s">
         <v>5284</v>
       </c>
-    </row>
-    <row r="4775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4774" s="2" t="s">
+        <v>6592</v>
+      </c>
+    </row>
+    <row r="4775" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4775" t="s">
         <v>5285</v>
       </c>
-    </row>
-    <row r="4776" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4775" s="2" t="s">
+        <v>6611</v>
+      </c>
+    </row>
+    <row r="4776" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4776" t="s">
         <v>5286</v>
       </c>
-    </row>
-    <row r="4777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4776" s="2" t="s">
+        <v>6593</v>
+      </c>
+    </row>
+    <row r="4777" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4777" t="s">
         <v>5287</v>
       </c>
-    </row>
-    <row r="4778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4777" s="2" t="s">
+        <v>6612</v>
+      </c>
+    </row>
+    <row r="4778" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4778" t="s">
         <v>5288</v>
       </c>
-    </row>
-    <row r="4779" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4778" s="2" t="s">
+        <v>6594</v>
+      </c>
+    </row>
+    <row r="4779" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4779" t="s">
         <v>5289</v>
       </c>
-    </row>
-    <row r="4780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4779" s="2" t="s">
+        <v>6595</v>
+      </c>
+    </row>
+    <row r="4780" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4780" t="s">
         <v>5290</v>
       </c>
-    </row>
-    <row r="4781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4780" s="2" t="s">
+        <v>6613</v>
+      </c>
+    </row>
+    <row r="4781" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4781" t="s">
         <v>5291</v>
       </c>
-    </row>
-    <row r="4782" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4781" s="2" t="s">
+        <v>6596</v>
+      </c>
+    </row>
+    <row r="4782" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4782" t="s">
         <v>5292</v>
       </c>
-    </row>
-    <row r="4783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4782" s="2" t="s">
+        <v>6597</v>
+      </c>
+    </row>
+    <row r="4783" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4783" t="s">
         <v>5293</v>
       </c>
-    </row>
-    <row r="4784" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4783" s="3" t="s">
+        <v>6598</v>
+      </c>
+    </row>
+    <row r="4784" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4784" t="s">
         <v>5294</v>
       </c>
-    </row>
-    <row r="4785" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4784" s="2" t="s">
+        <v>6614</v>
+      </c>
+    </row>
+    <row r="4785" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4785" t="s">
         <v>5295</v>
       </c>
-    </row>
-    <row r="4786" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4785" s="2" t="s">
+        <v>6599</v>
+      </c>
+    </row>
+    <row r="4786" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4786" t="s">
         <v>5296</v>
       </c>
-    </row>
-    <row r="4787" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4786" s="2" t="s">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="4787" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4787" t="s">
         <v>5297</v>
       </c>
-    </row>
-    <row r="4788" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4787" s="2" t="s">
+        <v>6615</v>
+      </c>
+    </row>
+    <row r="4788" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4788" t="s">
         <v>5298</v>
       </c>
-    </row>
-    <row r="4789" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4788" s="2" t="s">
+        <v>6601</v>
+      </c>
+    </row>
+    <row r="4789" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4789" t="s">
         <v>5299</v>
       </c>
-    </row>
-    <row r="4790" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4789" s="2" t="s">
+        <v>6616</v>
+      </c>
+    </row>
+    <row r="4790" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4790" t="s">
         <v>5300</v>
       </c>
-    </row>
-    <row r="4791" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4790" s="2" t="s">
+        <v>6602</v>
+      </c>
+    </row>
+    <row r="4791" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4791" t="s">
         <v>5301</v>
       </c>
-    </row>
-    <row r="4792" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4791" s="3" t="s">
+        <v>6603</v>
+      </c>
+    </row>
+    <row r="4792" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4792" t="s">
         <v>5302</v>
       </c>
-    </row>
-    <row r="4793" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4792" s="2" t="s">
+        <v>6617</v>
+      </c>
+    </row>
+    <row r="4793" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4793" t="s">
         <v>5303</v>
       </c>
-    </row>
-    <row r="4794" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4793" s="3" t="s">
+        <v>6604</v>
+      </c>
+    </row>
+    <row r="4794" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4794" t="s">
         <v>5304</v>
       </c>
-    </row>
-    <row r="4795" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4794" s="2" t="s">
+        <v>6618</v>
+      </c>
+    </row>
+    <row r="4795" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4795" t="s">
         <v>5305</v>
       </c>
-    </row>
-    <row r="4796" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4795" s="3" t="s">
+        <v>6619</v>
+      </c>
+    </row>
+    <row r="4796" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4796" t="s">
         <v>5306</v>
       </c>
-    </row>
-    <row r="4797" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4796" s="3" t="s">
+        <v>6605</v>
+      </c>
+    </row>
+    <row r="4797" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4797" t="s">
         <v>5307</v>
       </c>
-    </row>
-    <row r="4798" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4797" s="2" t="s">
+        <v>6620</v>
+      </c>
+    </row>
+    <row r="4798" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4798" t="s">
         <v>5308</v>
       </c>
-    </row>
-    <row r="4799" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4798" s="2" t="s">
+        <v>6606</v>
+      </c>
+    </row>
+    <row r="4799" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4799" t="s">
         <v>5309</v>
       </c>
-    </row>
-    <row r="4800" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4800" t="s">
+      <c r="C4799" s="2" t="s">
+        <v>6607</v>
+      </c>
+    </row>
+    <row r="4800" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4800" s="2" t="s">
         <v>5310</v>
       </c>
-    </row>
-    <row r="4801" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4801" t="s">
+      <c r="C4800" s="2" t="s">
+        <v>6634</v>
+      </c>
+    </row>
+    <row r="4801" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4801" s="2" t="s">
         <v>5311</v>
       </c>
-    </row>
-    <row r="4802" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4801" s="2" t="s">
+        <v>6621</v>
+      </c>
+    </row>
+    <row r="4802" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4802" t="s">
         <v>5312</v>
       </c>
-    </row>
-    <row r="4803" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4802" s="3" t="s">
+        <v>6635</v>
+      </c>
+    </row>
+    <row r="4803" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4803" t="s">
         <v>5313</v>
       </c>
-    </row>
-    <row r="4804" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4803" s="2" t="s">
+        <v>6622</v>
+      </c>
+    </row>
+    <row r="4804" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4804" t="s">
         <v>5314</v>
       </c>
-    </row>
-    <row r="4805" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4804" s="2" t="s">
+        <v>6636</v>
+      </c>
+    </row>
+    <row r="4805" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4805" t="s">
         <v>5315</v>
       </c>
-    </row>
-    <row r="4806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4805" s="2" t="s">
+        <v>6623</v>
+      </c>
+    </row>
+    <row r="4806" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4806" t="s">
         <v>5316</v>
       </c>
-    </row>
-    <row r="4807" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4806" s="2" t="s">
+        <v>6624</v>
+      </c>
+    </row>
+    <row r="4807" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4807" t="s">
         <v>5317</v>
       </c>
-    </row>
-    <row r="4808" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4807" s="2" t="s">
+        <v>6637</v>
+      </c>
+    </row>
+    <row r="4808" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4808" t="s">
         <v>5318</v>
       </c>
-    </row>
-    <row r="4809" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4808" s="2" t="s">
+        <v>6625</v>
+      </c>
+    </row>
+    <row r="4809" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4809" t="s">
         <v>5319</v>
       </c>
-    </row>
-    <row r="4810" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4809" s="2" t="s">
+        <v>6638</v>
+      </c>
+    </row>
+    <row r="4810" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4810" t="s">
         <v>5320</v>
       </c>
-    </row>
-    <row r="4811" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4810" s="2" t="s">
+        <v>6626</v>
+      </c>
+    </row>
+    <row r="4811" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4811" t="s">
         <v>5321</v>
       </c>
-    </row>
-    <row r="4812" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4811" s="2" t="s">
+        <v>6639</v>
+      </c>
+    </row>
+    <row r="4812" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4812" t="s">
         <v>5322</v>
       </c>
-    </row>
-    <row r="4813" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4812" s="2" t="s">
+        <v>6640</v>
+      </c>
+    </row>
+    <row r="4813" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4813" t="s">
         <v>5323</v>
       </c>
-    </row>
-    <row r="4814" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4813" s="2" t="s">
+        <v>6641</v>
+      </c>
+    </row>
+    <row r="4814" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4814" t="s">
         <v>5324</v>
       </c>
-    </row>
-    <row r="4815" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4814" s="3" t="s">
+        <v>6642</v>
+      </c>
+    </row>
+    <row r="4815" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4815" t="s">
         <v>5325</v>
       </c>
-    </row>
-    <row r="4816" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4815" s="2" t="s">
+        <v>6627</v>
+      </c>
+    </row>
+    <row r="4816" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4816" t="s">
         <v>5326</v>
       </c>
-    </row>
-    <row r="4817" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4816" s="2" t="s">
+        <v>6643</v>
+      </c>
+    </row>
+    <row r="4817" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4817" t="s">
         <v>5327</v>
       </c>
-    </row>
-    <row r="4818" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4817" s="2" t="s">
+        <v>6644</v>
+      </c>
+    </row>
+    <row r="4818" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4818" t="s">
         <v>5328</v>
       </c>
-    </row>
-    <row r="4819" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4818" s="2" t="s">
+        <v>6645</v>
+      </c>
+    </row>
+    <row r="4819" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4819" t="s">
         <v>5329</v>
       </c>
-    </row>
-    <row r="4820" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4819" s="2" t="s">
+        <v>6628</v>
+      </c>
+    </row>
+    <row r="4820" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4820" t="s">
         <v>5330</v>
       </c>
-    </row>
-    <row r="4821" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4820" s="2" t="s">
+        <v>6646</v>
+      </c>
+    </row>
+    <row r="4821" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4821" t="s">
         <v>5331</v>
       </c>
-    </row>
-    <row r="4822" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4821" s="2" t="s">
+        <v>6629</v>
+      </c>
+    </row>
+    <row r="4822" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4822" t="s">
         <v>5332</v>
       </c>
-    </row>
-    <row r="4823" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4822" s="2" t="s">
+        <v>6647</v>
+      </c>
+    </row>
+    <row r="4823" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4823" t="s">
         <v>5333</v>
       </c>
-    </row>
-    <row r="4824" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4823" s="3" t="s">
+        <v>6648</v>
+      </c>
+    </row>
+    <row r="4824" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4824" t="s">
         <v>5334</v>
       </c>
-    </row>
-    <row r="4825" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4824" s="2" t="s">
+        <v>6630</v>
+      </c>
+    </row>
+    <row r="4825" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4825" t="s">
         <v>5335</v>
       </c>
-    </row>
-    <row r="4826" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4825" s="2" t="s">
+        <v>6649</v>
+      </c>
+    </row>
+    <row r="4826" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4826" t="s">
         <v>5336</v>
       </c>
-    </row>
-    <row r="4827" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4826" s="2" t="s">
+        <v>6631</v>
+      </c>
+    </row>
+    <row r="4827" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4827" t="s">
         <v>5337</v>
       </c>
-    </row>
-    <row r="4828" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4827" s="3" t="s">
+        <v>6650</v>
+      </c>
+    </row>
+    <row r="4828" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4828" t="s">
         <v>5338</v>
       </c>
-    </row>
-    <row r="4829" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4828" s="2" t="s">
+        <v>6632</v>
+      </c>
+    </row>
+    <row r="4829" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4829" t="s">
         <v>5339</v>
       </c>
-    </row>
-    <row r="4830" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4829" s="2" t="s">
+        <v>6651</v>
+      </c>
+    </row>
+    <row r="4830" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4830" t="s">
         <v>5340</v>
       </c>
-    </row>
-    <row r="4831" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4830" s="2" t="s">
+        <v>6652</v>
+      </c>
+    </row>
+    <row r="4831" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4831" t="s">
         <v>5341</v>
       </c>
-    </row>
-    <row r="4832" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4831" s="2" t="s">
+        <v>6633</v>
+      </c>
+    </row>
+    <row r="4832" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4832" t="s">
         <v>5342</v>
+      </c>
+      <c r="C4832" s="2" t="s">
+        <v>6653</v>
       </c>
     </row>
     <row r="4833" spans="1:2" x14ac:dyDescent="0.25">
